--- a/bubbles.xlsx
+++ b/bubbles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EQ" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="users" sheetId="3" r:id="rId4"/>
     <sheet name="rentals" sheetId="4" r:id="rId5"/>
     <sheet name="roles" sheetId="5" r:id="rId6"/>
+    <sheet name="transmittals" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="370">
   <si>
     <t>J25A1</t>
   </si>
@@ -571,14 +573,581 @@
     <t>transmittal number</t>
   </si>
   <si>
-    <t>key</t>
+    <t>Medeco Key</t>
+  </si>
+  <si>
+    <t>classroom keys from the UW Lock Shop.</t>
+  </si>
+  <si>
+    <t>UZA3</t>
+  </si>
+  <si>
+    <t>J25A49</t>
+  </si>
+  <si>
+    <t>UZA4</t>
+  </si>
+  <si>
+    <t>J25AZ1</t>
+  </si>
+  <si>
+    <t>J25A101</t>
+  </si>
+  <si>
+    <t>SoM 2</t>
+  </si>
+  <si>
+    <t>SoM 4</t>
+  </si>
+  <si>
+    <t>SoM 5</t>
+  </si>
+  <si>
+    <t>SoM 6</t>
+  </si>
+  <si>
+    <t>SoM 7</t>
+  </si>
+  <si>
+    <t>SoM 8</t>
+  </si>
+  <si>
+    <t>SoM 9</t>
+  </si>
+  <si>
+    <t>SoM 10</t>
+  </si>
+  <si>
+    <t>SoM 12A</t>
+  </si>
+  <si>
+    <t>SoM 12B</t>
+  </si>
+  <si>
+    <t>SoM 13</t>
+  </si>
+  <si>
+    <t>SoM 14</t>
+  </si>
+  <si>
+    <t>SoM 16</t>
+  </si>
+  <si>
+    <t>SoM 18</t>
+  </si>
+  <si>
+    <t>SoM 21</t>
+  </si>
+  <si>
+    <t>SoM 23</t>
+  </si>
+  <si>
+    <t>SoM 25</t>
+  </si>
+  <si>
+    <t>SoM 26</t>
+  </si>
+  <si>
+    <t>SoM 27</t>
+  </si>
+  <si>
+    <t>SoM 28A</t>
+  </si>
+  <si>
+    <t>SoM 28B</t>
+  </si>
+  <si>
+    <t>SoM 28C</t>
+  </si>
+  <si>
+    <t>SoM 28D</t>
+  </si>
+  <si>
+    <t>SoM 28E</t>
+  </si>
+  <si>
+    <t>SoM 29</t>
+  </si>
+  <si>
+    <t>SoM 30</t>
+  </si>
+  <si>
+    <t>SoM 31</t>
+  </si>
+  <si>
+    <t>SoM 31A</t>
+  </si>
+  <si>
+    <t>SoM 31B</t>
+  </si>
+  <si>
+    <t>SoM 31C</t>
+  </si>
+  <si>
+    <t>SoM 32</t>
+  </si>
+  <si>
+    <t>SoM 33</t>
+  </si>
+  <si>
+    <t>SoM 33A</t>
+  </si>
+  <si>
+    <t>SoM 34</t>
+  </si>
+  <si>
+    <t>SoM 35</t>
+  </si>
+  <si>
+    <t>SoM 35A</t>
+  </si>
+  <si>
+    <t>SoM 38</t>
+  </si>
+  <si>
+    <t>SoM 40</t>
+  </si>
+  <si>
+    <t>SoM 41</t>
+  </si>
+  <si>
+    <t>SoM 46</t>
+  </si>
+  <si>
+    <t>SoM 48</t>
+  </si>
+  <si>
+    <t>SoM 50</t>
+  </si>
+  <si>
+    <t>SoM 52</t>
+  </si>
+  <si>
+    <t>SoM 54</t>
+  </si>
+  <si>
+    <t>SoM 56</t>
+  </si>
+  <si>
+    <t>SoM 58</t>
+  </si>
+  <si>
+    <t>SoM 60</t>
+  </si>
+  <si>
+    <t>SoM 62</t>
+  </si>
+  <si>
+    <t>SoM 64</t>
+  </si>
+  <si>
+    <t>SoM 101</t>
+  </si>
+  <si>
+    <t>SoM 102</t>
+  </si>
+  <si>
+    <t>SoM 103</t>
+  </si>
+  <si>
+    <t>SoM 104</t>
+  </si>
+  <si>
+    <t>SoM 105</t>
+  </si>
+  <si>
+    <t>SoM 106</t>
+  </si>
+  <si>
+    <t>SoM 107</t>
+  </si>
+  <si>
+    <t>SoM 108</t>
+  </si>
+  <si>
+    <t>SoM 109</t>
+  </si>
+  <si>
+    <t>SoM 110</t>
+  </si>
+  <si>
+    <t>SoM 111</t>
+  </si>
+  <si>
+    <t>SoM 114</t>
+  </si>
+  <si>
+    <t>SoM 116</t>
+  </si>
+  <si>
+    <t>SoM 120</t>
+  </si>
+  <si>
+    <t>SoM 124</t>
+  </si>
+  <si>
+    <t>SoM 126</t>
+  </si>
+  <si>
+    <t>SoM 201</t>
+  </si>
+  <si>
+    <t>SoM 202</t>
+  </si>
+  <si>
+    <t>SoM 204</t>
+  </si>
+  <si>
+    <t>SoM 205</t>
+  </si>
+  <si>
+    <t>SoM 206</t>
+  </si>
+  <si>
+    <t>SoM 207</t>
+  </si>
+  <si>
+    <t>SoM 209</t>
+  </si>
+  <si>
+    <t>SoM 210</t>
+  </si>
+  <si>
+    <t>SoM 211</t>
+  </si>
+  <si>
+    <t>SoM 212</t>
+  </si>
+  <si>
+    <t>SoM 213</t>
+  </si>
+  <si>
+    <t>SoM 214</t>
+  </si>
+  <si>
+    <t>SoM 216</t>
+  </si>
+  <si>
+    <t>SoM 217</t>
+  </si>
+  <si>
+    <t>SoM 218</t>
+  </si>
+  <si>
+    <t>SoM 219</t>
+  </si>
+  <si>
+    <t>SoM 222</t>
+  </si>
+  <si>
+    <t>SoM 223</t>
+  </si>
+  <si>
+    <t>SoM 225</t>
+  </si>
+  <si>
+    <t>SoM 226</t>
+  </si>
+  <si>
+    <t>SoM 301</t>
+  </si>
+  <si>
+    <t>SoM 305</t>
+  </si>
+  <si>
+    <t>SoM 310</t>
+  </si>
+  <si>
+    <t>SoM 311</t>
+  </si>
+  <si>
+    <t>SoM 313</t>
+  </si>
+  <si>
+    <t>SoM 314</t>
+  </si>
+  <si>
+    <t>SoM 315</t>
+  </si>
+  <si>
+    <t>SoM 316A</t>
+  </si>
+  <si>
+    <t>SoM 317</t>
+  </si>
+  <si>
+    <t>SoM 319</t>
+  </si>
+  <si>
+    <t>SoM 322</t>
+  </si>
+  <si>
+    <t>SoM 324</t>
+  </si>
+  <si>
+    <t>SoM 325</t>
+  </si>
+  <si>
+    <t>SoM 330</t>
+  </si>
+  <si>
+    <t>SoM 331</t>
+  </si>
+  <si>
+    <t>SoM 331A</t>
+  </si>
+  <si>
+    <t>SoM 331B</t>
+  </si>
+  <si>
+    <t>SoM 335</t>
+  </si>
+  <si>
+    <t>SoM 336</t>
+  </si>
+  <si>
+    <t>SoM 337</t>
+  </si>
+  <si>
+    <t>SoM 343</t>
+  </si>
+  <si>
+    <t>MNY 53</t>
+  </si>
+  <si>
+    <t>MNY 55</t>
+  </si>
+  <si>
+    <t>MNY 56</t>
+  </si>
+  <si>
+    <t>MNY 59A</t>
+  </si>
+  <si>
+    <t>MNY 59B</t>
+  </si>
+  <si>
+    <t>MNY 59E</t>
+  </si>
+  <si>
+    <t>MNY 59K</t>
+  </si>
+  <si>
+    <t>MNY 61</t>
+  </si>
+  <si>
+    <t>MNY 63</t>
+  </si>
+  <si>
+    <t>MNY 63A</t>
+  </si>
+  <si>
+    <t>MNY 94A</t>
+  </si>
+  <si>
+    <t>MNY 268</t>
+  </si>
+  <si>
+    <t>MNY 268A</t>
+  </si>
+  <si>
+    <t>MNY 268B</t>
+  </si>
+  <si>
+    <t>MNY 102</t>
+  </si>
+  <si>
+    <t>MNY 102A</t>
+  </si>
+  <si>
+    <t>MNY 102C</t>
+  </si>
+  <si>
+    <t>MNY BLDG</t>
+  </si>
+  <si>
+    <t>MNY THEATR</t>
+  </si>
+  <si>
+    <t>MNY PERC SUBMASTER</t>
+  </si>
+  <si>
+    <t>SoM 9-9A</t>
+  </si>
+  <si>
+    <t>SoM 20-22</t>
+  </si>
+  <si>
+    <t>Practive Key</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>practice room keys from Lock Shop.</t>
+  </si>
+  <si>
+    <t>keys to facility rooms in the SoM.</t>
+  </si>
+  <si>
+    <t>Facility Key</t>
+  </si>
+  <si>
+    <t>MNY ELEVATOR</t>
+  </si>
+  <si>
+    <t>MNY STAIRWELL</t>
+  </si>
+  <si>
+    <t>KANE WA RM</t>
+  </si>
+  <si>
+    <t>Mny Key</t>
+  </si>
+  <si>
+    <t>keys to the old system in MNY.</t>
+  </si>
+  <si>
+    <t>Rachael</t>
+  </si>
+  <si>
+    <t>Zeiger</t>
+  </si>
+  <si>
+    <t>ST875</t>
+  </si>
+  <si>
+    <t>Transmittal Number</t>
+  </si>
+  <si>
+    <t>Transmittal date</t>
+  </si>
+  <si>
+    <t>rae012@uw.edu</t>
+  </si>
+  <si>
+    <t>605-520-0936</t>
+  </si>
+  <si>
+    <t>15th Ave NE</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>98195-4470</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Zeiter</t>
+  </si>
+  <si>
+    <t>ljz4297@uw.edu</t>
+  </si>
+  <si>
+    <t>702-580-1442</t>
+  </si>
+  <si>
+    <t>student staff</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>ST996</t>
+  </si>
+  <si>
+    <t>ST868</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>zhangy405@gmail.com</t>
+  </si>
+  <si>
+    <t>626-848-3256</t>
+  </si>
+  <si>
+    <t>112th Ave NE</t>
+  </si>
+  <si>
+    <t>Yimo</t>
+  </si>
+  <si>
+    <t>yimo2@uw.edu</t>
+  </si>
+  <si>
+    <t>508-685-4377</t>
+  </si>
+  <si>
+    <t>12th Ave NE Apt 307</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>Molly</t>
+  </si>
+  <si>
+    <t>Yan</t>
+  </si>
+  <si>
+    <t>ST292</t>
+  </si>
+  <si>
+    <t>moy@uw.edu</t>
+  </si>
+  <si>
+    <t>206-240-2968</t>
+  </si>
+  <si>
+    <t>Brooklyn Ave NE (Apt. 403)</t>
+  </si>
+  <si>
+    <t>Hye</t>
+  </si>
+  <si>
+    <t>Jung</t>
+  </si>
+  <si>
+    <t>taddyhj@hotmail.com</t>
+  </si>
+  <si>
+    <t>503-957-8850</t>
+  </si>
+  <si>
+    <t>SW Lookout Dr</t>
+  </si>
+  <si>
+    <t>Tigard</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>ST917</t>
+  </si>
+  <si>
+    <t>F140</t>
+  </si>
+  <si>
+    <t>mailbox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +1159,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,17 +1189,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -898,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D818"/>
+  <dimension ref="A1:D815"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="A815" sqref="A815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5312,106 +5909,91 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="B800">
+        <v>352</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A801" t="s">
-        <v>145</v>
+      <c r="B801">
+        <v>348</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A802" t="s">
-        <v>146</v>
-      </c>
       <c r="B802">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B803">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B804">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B805">
-        <v>346</v>
+        <v>308</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B806">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B807">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>147</v>
+      </c>
       <c r="B808">
-        <v>351</v>
+        <v>15</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B809">
-        <v>344</v>
+        <v>22</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A810" t="s">
-        <v>147</v>
-      </c>
       <c r="B810">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B811">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B812">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B813">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B814">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>148</v>
+      </c>
       <c r="B815">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B816">
         <v>20</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A817" t="s">
-        <v>148</v>
-      </c>
-      <c r="B817">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5425,10 +6007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5454,23 +6036,1491 @@
         <v>164</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>315</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>315</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>180</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" t="s">
+        <v>180</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" t="s">
+        <v>180</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" t="s">
+        <v>180</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" t="s">
+        <v>180</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>180</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" t="s">
+        <v>180</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B118" t="s">
+        <v>180</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" t="s">
+        <v>180</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" t="s">
+        <v>180</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122" t="s">
+        <v>180</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B123" t="s">
+        <v>180</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" t="s">
+        <v>323</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" t="s">
+        <v>323</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" t="s">
+        <v>323</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128" t="s">
+        <v>180</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" t="s">
+        <v>323</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" t="s">
+        <v>319</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" t="s">
+        <v>319</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+      <c r="B133" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" t="s">
+        <v>319</v>
+      </c>
+      <c r="D134" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" t="s">
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5478,16 +7528,55 @@
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>180</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -5498,10 +7587,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" activeCellId="1" sqref="A7 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5510,70 +7600,242 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>160</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2">
+        <v>4000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G4">
+        <v>19115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4">
+        <v>98011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5">
+        <v>4139</v>
+      </c>
+      <c r="H5" t="s">
+        <v>352</v>
+      </c>
+      <c r="I5" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" t="s">
+        <v>334</v>
+      </c>
+      <c r="K5">
+        <v>98105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6">
+        <v>5043</v>
+      </c>
+      <c r="H6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I6" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6">
+        <v>98105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7">
+        <v>14887</v>
+      </c>
+      <c r="H7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K7">
+        <v>97224</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -5584,37 +7846,369 @@
         <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>1773888</v>
+      </c>
+      <c r="E2">
+        <v>1437691</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="6">
+        <v>43259</v>
+      </c>
+      <c r="L2" s="6">
+        <v>43014</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>1773888</v>
+      </c>
+      <c r="E3">
+        <v>1437691</v>
+      </c>
+      <c r="H3">
+        <v>93</v>
+      </c>
+      <c r="I3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="6">
+        <v>43259</v>
+      </c>
+      <c r="L3" s="6">
+        <v>43014</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>1530044</v>
+      </c>
+      <c r="E4">
+        <v>1437691</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="6">
+        <v>43259</v>
+      </c>
+      <c r="L4" s="6">
+        <v>42425</v>
+      </c>
+      <c r="M4">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5">
+        <v>1437691</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="6">
+        <v>43259</v>
+      </c>
+      <c r="L5" s="6">
+        <v>42677</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>1772436</v>
+      </c>
+      <c r="E6">
+        <v>1437691</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="6">
+        <v>43259</v>
+      </c>
+      <c r="L6" s="6">
+        <v>43000</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7">
+        <v>1622482</v>
+      </c>
+      <c r="E7">
+        <v>1437691</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="6">
+        <v>43103</v>
+      </c>
+      <c r="L7" s="6">
+        <v>42738</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8">
+        <v>1622482</v>
+      </c>
+      <c r="E8">
+        <v>1437691</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="6">
+        <v>43103</v>
+      </c>
+      <c r="L8" s="6">
+        <v>42639</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>1428177</v>
+      </c>
+      <c r="E9">
+        <v>1437691</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="6">
+        <v>43259</v>
+      </c>
+      <c r="L9" s="6">
+        <v>42283</v>
+      </c>
+      <c r="M9">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>1324831</v>
+      </c>
+      <c r="E10">
+        <v>1437691</v>
+      </c>
+      <c r="I10" t="s">
+        <v>368</v>
+      </c>
+      <c r="J10" s="6">
+        <v>43103</v>
+      </c>
+      <c r="L10" s="6">
+        <v>41534</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>1324831</v>
+      </c>
+      <c r="E11">
+        <v>1437691</v>
+      </c>
+      <c r="I11" t="s">
+        <v>369</v>
+      </c>
+      <c r="J11" s="6">
+        <v>43103</v>
+      </c>
+      <c r="L11" s="6">
+        <v>42265</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5624,10 +8218,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5674,7 +8268,85 @@
         <v>55</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="6">
+        <v>42437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="6">
+        <v>43005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="6">
+        <v>42286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="6">
+        <v>41537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/bubbles.xlsx
+++ b/bubbles.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacarl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacarl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="EQ" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="transmittals" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="432">
   <si>
     <t>J25A1</t>
   </si>
@@ -501,12 +500,6 @@
     <t>phone</t>
   </si>
   <si>
-    <t>street number</t>
-  </si>
-  <si>
-    <t>street name</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -555,9 +548,6 @@
     <t>approver last name</t>
   </si>
   <si>
-    <t>expected return date</t>
-  </si>
-  <si>
     <t>end date</t>
   </si>
   <si>
@@ -1141,6 +1131,201 @@
   </si>
   <si>
     <t>mailbox</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>chrisyou@uw.edu</t>
+  </si>
+  <si>
+    <t>208-351-5436</t>
+  </si>
+  <si>
+    <t>24th Ave NE</t>
+  </si>
+  <si>
+    <t>ST828</t>
+  </si>
+  <si>
+    <t>ST873</t>
+  </si>
+  <si>
+    <t>ST882</t>
+  </si>
+  <si>
+    <t>F138</t>
+  </si>
+  <si>
+    <t>J25AC2</t>
+  </si>
+  <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Yuan</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>1048063978@99.com</t>
+  </si>
+  <si>
+    <t>818-818-2414</t>
+  </si>
+  <si>
+    <t>NE 47th Street</t>
+  </si>
+  <si>
+    <t>Sojung</t>
+  </si>
+  <si>
+    <t>Yuk</t>
+  </si>
+  <si>
+    <t>sojungyuk94@gmail.com</t>
+  </si>
+  <si>
+    <t>425-458-8434</t>
+  </si>
+  <si>
+    <t>NE 105th way</t>
+  </si>
+  <si>
+    <t>Redmond</t>
+  </si>
+  <si>
+    <t>ST805</t>
+  </si>
+  <si>
+    <t>F1221</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Yung</t>
+  </si>
+  <si>
+    <t>jay.yung007@gmail.com</t>
+  </si>
+  <si>
+    <t>916-710-6927</t>
+  </si>
+  <si>
+    <t>Bearint way</t>
+  </si>
+  <si>
+    <t>Elk Grove</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>ST879</t>
+  </si>
+  <si>
+    <t>Miaojun</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>miaojun@uw.edu</t>
+  </si>
+  <si>
+    <t>803-414-1679</t>
+  </si>
+  <si>
+    <t>NE 9th St, Apt 406</t>
+  </si>
+  <si>
+    <t>Bellevue</t>
+  </si>
+  <si>
+    <t>line 1</t>
+  </si>
+  <si>
+    <t>Line 2</t>
+  </si>
+  <si>
+    <t>Line 3</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>Wahl</t>
+  </si>
+  <si>
+    <t>emersonw@uw.edu</t>
+  </si>
+  <si>
+    <t>818-610-9887</t>
+  </si>
+  <si>
+    <t>3927 Adams Ln NE</t>
+  </si>
+  <si>
+    <t>Mercer Court E #504D</t>
+  </si>
+  <si>
+    <t>ST866</t>
+  </si>
+  <si>
+    <t>F1220</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>chenw44@uw.edu</t>
+  </si>
+  <si>
+    <t>206-604-7856</t>
+  </si>
+  <si>
+    <t>120 21st Ave E</t>
+  </si>
+  <si>
+    <t>Unit B</t>
+  </si>
+  <si>
+    <t>ST817</t>
+  </si>
+  <si>
+    <t>ST836</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>wallofmusic@gmail.com</t>
+  </si>
+  <si>
+    <t>951-306-6624</t>
+  </si>
+  <si>
+    <t>8827 23rd Ave NE</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>ST287</t>
+  </si>
+  <si>
+    <t>ST881</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1206,6 +1391,8 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1495,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D815"/>
+  <dimension ref="A1:D833"/>
   <sheetViews>
-    <sheetView topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="A815" sqref="A815"/>
+    <sheetView topLeftCell="A799" workbookViewId="0">
+      <selection activeCell="A834" sqref="A834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1705,7 @@
         <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1530,26 +1717,41 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
       <c r="B6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
       <c r="B7">
         <v>10</v>
       </c>
@@ -1563,6 +1765,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
       <c r="B9">
         <v>2</v>
       </c>
@@ -1576,46 +1781,73 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
       <c r="B11">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
       <c r="B12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
       <c r="B13">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
       <c r="B14">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
       <c r="B15">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
       <c r="B16">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
       <c r="B17">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
       <c r="B18">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
       <c r="B19">
         <v>8</v>
       </c>
@@ -1629,11 +1861,17 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
       <c r="B21">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
       <c r="B22">
         <v>20</v>
       </c>
@@ -1647,21 +1885,33 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
       <c r="B24">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
       <c r="B25">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
       <c r="B26">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
       <c r="B27">
         <v>12</v>
       </c>
@@ -1675,51 +1925,81 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
       <c r="B29">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
       <c r="B30">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
       <c r="B31">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
       <c r="B32">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
       <c r="B33">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
       <c r="B34">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
       <c r="B35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
       <c r="B36">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
       <c r="B37">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
       <c r="B38">
         <v>7</v>
       </c>
@@ -1733,16 +2013,25 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
       <c r="B40">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
       <c r="B41">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
       <c r="B42">
         <v>19</v>
       </c>
@@ -1756,6 +2045,9 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
       <c r="B44">
         <v>5</v>
       </c>
@@ -1777,16 +2069,25 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
       <c r="B47">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
       <c r="B48">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
       <c r="B49">
         <v>13</v>
       </c>
@@ -1800,21 +2101,33 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
       <c r="B51">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
       <c r="B52">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
       <c r="B53">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
       <c r="B54">
         <v>10</v>
       </c>
@@ -1828,26 +2141,41 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
       <c r="B56">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
       <c r="B57">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
       <c r="B58">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
       <c r="B59">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
       <c r="B60">
         <v>14</v>
       </c>
@@ -1861,11 +2189,17 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
       <c r="B62">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
       <c r="B63">
         <v>6</v>
       </c>
@@ -1879,26 +2213,41 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
       <c r="B65">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
       <c r="B66">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
       <c r="B67">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
       <c r="B68">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
       <c r="B69">
         <v>5</v>
       </c>
@@ -1912,21 +2261,33 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
       <c r="B71">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
       <c r="B72">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
       <c r="B73">
         <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
       <c r="B74">
         <v>8</v>
       </c>
@@ -1964,16 +2325,25 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
       <c r="B79">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
       <c r="B80">
         <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
       <c r="B81">
         <v>30</v>
       </c>
@@ -1987,16 +2357,25 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>19</v>
+      </c>
       <c r="B83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
       <c r="B84">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
       <c r="B85">
         <v>10</v>
       </c>
@@ -2010,11 +2389,17 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
       <c r="B87">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
       <c r="B88">
         <v>7</v>
       </c>
@@ -2028,16 +2413,25 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
       <c r="B90">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
       <c r="B91">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
       <c r="B92">
         <v>6</v>
       </c>
@@ -2051,36 +2445,57 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
       <c r="B94">
         <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
       <c r="B95">
         <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
       <c r="B96">
         <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
       <c r="B97">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
       <c r="B98">
         <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
       <c r="B99">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
       <c r="B100">
         <v>20</v>
       </c>
@@ -2094,26 +2509,41 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
       <c r="B102">
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
       <c r="B103">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
       <c r="B104">
         <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
       <c r="B105">
         <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
       <c r="B106">
         <v>23</v>
       </c>
@@ -2127,26 +2557,41 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>24</v>
+      </c>
       <c r="B108">
         <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
       <c r="B109">
         <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
       <c r="B110">
         <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
       <c r="B111">
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
       <c r="B112">
         <v>3</v>
       </c>
@@ -2160,6 +2605,9 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
       <c r="B114">
         <v>2</v>
       </c>
@@ -2173,96 +2621,153 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
       <c r="B116">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>26</v>
+      </c>
       <c r="B117">
         <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>26</v>
+      </c>
       <c r="B118">
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>26</v>
+      </c>
       <c r="B119">
         <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>26</v>
+      </c>
       <c r="B120">
         <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>26</v>
+      </c>
       <c r="B121">
         <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>26</v>
+      </c>
       <c r="B122">
         <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>26</v>
+      </c>
       <c r="B123">
         <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>26</v>
+      </c>
       <c r="B124">
         <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>26</v>
+      </c>
       <c r="B125">
         <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>26</v>
+      </c>
       <c r="B126">
         <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>26</v>
+      </c>
       <c r="B127">
         <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>26</v>
+      </c>
       <c r="B128">
         <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>26</v>
+      </c>
       <c r="B129">
         <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>26</v>
+      </c>
       <c r="B130">
         <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>26</v>
+      </c>
       <c r="B131">
         <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>26</v>
+      </c>
       <c r="B132">
         <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>26</v>
+      </c>
       <c r="B133">
         <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>26</v>
+      </c>
       <c r="B134">
         <v>23</v>
       </c>
@@ -2276,11 +2781,17 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>27</v>
+      </c>
       <c r="B136">
         <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>27</v>
+      </c>
       <c r="B137">
         <v>3</v>
       </c>
@@ -2294,11 +2805,17 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>28</v>
+      </c>
       <c r="B139">
         <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>28</v>
+      </c>
       <c r="B140">
         <v>23</v>
       </c>
@@ -2312,6 +2829,9 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>29</v>
+      </c>
       <c r="B142">
         <v>31</v>
       </c>
@@ -2325,46 +2845,73 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>30</v>
+      </c>
       <c r="B144">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>30</v>
+      </c>
       <c r="B145">
         <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>30</v>
+      </c>
       <c r="B146">
         <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>30</v>
+      </c>
       <c r="B147">
         <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>30</v>
+      </c>
       <c r="B148">
         <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>30</v>
+      </c>
       <c r="B149">
         <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>30</v>
+      </c>
       <c r="B150">
         <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>30</v>
+      </c>
       <c r="B151">
         <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>30</v>
+      </c>
       <c r="B152">
         <v>2</v>
       </c>
@@ -2378,11 +2925,17 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>31</v>
+      </c>
       <c r="B154">
         <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>31</v>
+      </c>
       <c r="B155">
         <v>1</v>
       </c>
@@ -2396,6 +2949,9 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>32</v>
+      </c>
       <c r="B157">
         <v>5</v>
       </c>
@@ -2409,11 +2965,17 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>33</v>
+      </c>
       <c r="B159">
         <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>33</v>
+      </c>
       <c r="B160">
         <v>6</v>
       </c>
@@ -2427,21 +2989,33 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>34</v>
+      </c>
       <c r="B162">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>34</v>
+      </c>
       <c r="B163">
         <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>34</v>
+      </c>
       <c r="B164">
         <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>34</v>
+      </c>
       <c r="B165">
         <v>6</v>
       </c>
@@ -2455,16 +3029,25 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>35</v>
+      </c>
       <c r="B167">
         <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>35</v>
+      </c>
       <c r="B168">
         <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>35</v>
+      </c>
       <c r="B169">
         <v>20</v>
       </c>
@@ -2478,21 +3061,33 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>36</v>
+      </c>
       <c r="B171">
         <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>36</v>
+      </c>
       <c r="B172">
         <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>36</v>
+      </c>
       <c r="B173">
         <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>36</v>
+      </c>
       <c r="B174">
         <v>6</v>
       </c>
@@ -2506,21 +3101,33 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>37</v>
+      </c>
       <c r="B176">
         <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>37</v>
+      </c>
       <c r="B177">
         <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>37</v>
+      </c>
       <c r="B178">
         <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>37</v>
+      </c>
       <c r="B179">
         <v>4</v>
       </c>
@@ -2534,41 +3141,65 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>38</v>
+      </c>
       <c r="B181">
         <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>38</v>
+      </c>
       <c r="B182">
         <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>38</v>
+      </c>
       <c r="B183">
         <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>38</v>
+      </c>
       <c r="B184">
         <v>34</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>38</v>
+      </c>
       <c r="B185">
         <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>38</v>
+      </c>
       <c r="B186">
         <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>38</v>
+      </c>
       <c r="B187">
         <v>28</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>38</v>
+      </c>
       <c r="B188">
         <v>22</v>
       </c>
@@ -2582,16 +3213,25 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>17</v>
+      </c>
       <c r="B190">
         <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>17</v>
+      </c>
       <c r="B191">
         <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
       <c r="B192">
         <v>17</v>
       </c>
@@ -2605,6 +3245,9 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>39</v>
+      </c>
       <c r="B194">
         <v>6</v>
       </c>
@@ -2618,26 +3261,41 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>40</v>
+      </c>
       <c r="B196">
         <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>40</v>
+      </c>
       <c r="B197">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>40</v>
+      </c>
       <c r="B198">
         <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>40</v>
+      </c>
       <c r="B199">
         <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>40</v>
+      </c>
       <c r="B200">
         <v>5</v>
       </c>
@@ -2659,26 +3317,41 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>42</v>
+      </c>
       <c r="B203">
         <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>42</v>
+      </c>
       <c r="B204">
         <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>42</v>
+      </c>
       <c r="B205">
         <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>42</v>
+      </c>
       <c r="B206">
         <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>42</v>
+      </c>
       <c r="B207">
         <v>1</v>
       </c>
@@ -2692,56 +3365,89 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>43</v>
+      </c>
       <c r="B209">
         <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>43</v>
+      </c>
       <c r="B210">
         <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>43</v>
+      </c>
       <c r="B211">
         <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>43</v>
+      </c>
       <c r="B212">
         <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>43</v>
+      </c>
       <c r="B213">
         <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>43</v>
+      </c>
       <c r="B214">
         <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>43</v>
+      </c>
       <c r="B215">
         <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>43</v>
+      </c>
       <c r="B216">
         <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>43</v>
+      </c>
       <c r="B217">
         <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>43</v>
+      </c>
       <c r="B218">
         <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>43</v>
+      </c>
       <c r="B219">
         <v>7</v>
       </c>
@@ -2763,21 +3469,33 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>45</v>
+      </c>
       <c r="B222">
         <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>45</v>
+      </c>
       <c r="B223">
         <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>45</v>
+      </c>
       <c r="B224">
         <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>45</v>
+      </c>
       <c r="B225">
         <v>8</v>
       </c>
@@ -2791,46 +3509,73 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>46</v>
+      </c>
       <c r="B227">
         <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>46</v>
+      </c>
       <c r="B228">
         <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>46</v>
+      </c>
       <c r="B229">
         <v>8</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>46</v>
+      </c>
       <c r="B230">
         <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>46</v>
+      </c>
       <c r="B231">
         <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>46</v>
+      </c>
       <c r="B232">
         <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>46</v>
+      </c>
       <c r="B233">
         <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>46</v>
+      </c>
       <c r="B234">
         <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>46</v>
+      </c>
       <c r="B235">
         <v>3</v>
       </c>
@@ -2844,51 +3589,81 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>47</v>
+      </c>
       <c r="B237">
         <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>47</v>
+      </c>
       <c r="B238">
         <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>47</v>
+      </c>
       <c r="B239">
         <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>47</v>
+      </c>
       <c r="B240">
         <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>47</v>
+      </c>
       <c r="B241">
         <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>47</v>
+      </c>
       <c r="B242">
         <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>47</v>
+      </c>
       <c r="B243">
         <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>47</v>
+      </c>
       <c r="B244">
         <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>47</v>
+      </c>
       <c r="B245">
         <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>47</v>
+      </c>
       <c r="B246">
         <v>13</v>
       </c>
@@ -2902,21 +3677,33 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>61</v>
+      </c>
       <c r="B248">
         <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>61</v>
+      </c>
       <c r="B249">
         <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>61</v>
+      </c>
       <c r="B250">
         <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>61</v>
+      </c>
       <c r="B251">
         <v>5</v>
       </c>
@@ -2930,11 +3717,17 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>62</v>
+      </c>
       <c r="B253">
         <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>62</v>
+      </c>
       <c r="B254">
         <v>12</v>
       </c>
@@ -2948,16 +3741,25 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>63</v>
+      </c>
       <c r="B256">
         <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>63</v>
+      </c>
       <c r="B257">
         <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>63</v>
+      </c>
       <c r="B258">
         <v>5</v>
       </c>
@@ -2971,31 +3773,49 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>64</v>
+      </c>
       <c r="B260">
         <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>64</v>
+      </c>
       <c r="B261">
         <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>64</v>
+      </c>
       <c r="B262">
         <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>64</v>
+      </c>
       <c r="B263">
         <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>64</v>
+      </c>
       <c r="B264">
         <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>64</v>
+      </c>
       <c r="B265">
         <v>6</v>
       </c>
@@ -3009,141 +3829,225 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>65</v>
+      </c>
       <c r="B267">
         <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>65</v>
+      </c>
       <c r="B268">
         <v>16</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>65</v>
+      </c>
       <c r="B269">
         <v>22</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>65</v>
+      </c>
       <c r="B270">
         <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>65</v>
+      </c>
       <c r="B271">
         <v>40</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>65</v>
+      </c>
       <c r="B272">
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>65</v>
+      </c>
       <c r="B273">
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>65</v>
+      </c>
       <c r="B274">
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>65</v>
+      </c>
       <c r="B275">
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>65</v>
+      </c>
       <c r="B276">
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>65</v>
+      </c>
       <c r="B277">
         <v>38</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>65</v>
+      </c>
       <c r="B278">
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>65</v>
+      </c>
       <c r="B279">
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>65</v>
+      </c>
       <c r="B280">
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>65</v>
+      </c>
       <c r="B281">
         <v>34</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>65</v>
+      </c>
       <c r="B282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>65</v>
+      </c>
       <c r="B283">
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>65</v>
+      </c>
       <c r="B284">
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>65</v>
+      </c>
       <c r="B285">
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>65</v>
+      </c>
       <c r="B286">
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>65</v>
+      </c>
       <c r="B287">
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>65</v>
+      </c>
       <c r="B288">
         <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>65</v>
+      </c>
       <c r="B289">
         <v>26</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>65</v>
+      </c>
       <c r="B290">
         <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>65</v>
+      </c>
       <c r="B291">
         <v>24</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>65</v>
+      </c>
       <c r="B292">
         <v>19</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>65</v>
+      </c>
       <c r="B293">
         <v>37</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>65</v>
+      </c>
       <c r="B294">
         <v>6</v>
       </c>
@@ -3157,11 +4061,17 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>66</v>
+      </c>
       <c r="B296">
         <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>66</v>
+      </c>
       <c r="B297">
         <v>5</v>
       </c>
@@ -3175,46 +4085,73 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>67</v>
+      </c>
       <c r="B299">
         <v>31</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>67</v>
+      </c>
       <c r="B300">
         <v>34</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>67</v>
+      </c>
       <c r="B301">
         <v>45</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>67</v>
+      </c>
       <c r="B302">
         <v>33</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>67</v>
+      </c>
       <c r="B303">
         <v>41</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>67</v>
+      </c>
       <c r="B304">
         <v>37</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>67</v>
+      </c>
       <c r="B305">
         <v>39</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>67</v>
+      </c>
       <c r="B306">
         <v>42</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>67</v>
+      </c>
       <c r="B307">
         <v>40</v>
       </c>
@@ -3228,11 +4165,17 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>68</v>
+      </c>
       <c r="B309">
         <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>68</v>
+      </c>
       <c r="B310">
         <v>3</v>
       </c>
@@ -3246,26 +4189,41 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>69</v>
+      </c>
       <c r="B312">
         <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>69</v>
+      </c>
       <c r="B313">
         <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>69</v>
+      </c>
       <c r="B314">
         <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>69</v>
+      </c>
       <c r="B315">
         <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>69</v>
+      </c>
       <c r="B316">
         <v>5</v>
       </c>
@@ -3279,11 +4237,17 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>70</v>
+      </c>
       <c r="B318">
         <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>70</v>
+      </c>
       <c r="B319">
         <v>3</v>
       </c>
@@ -3297,11 +4261,17 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>71</v>
+      </c>
       <c r="B321">
         <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>71</v>
+      </c>
       <c r="B322">
         <v>3</v>
       </c>
@@ -3315,6 +4285,9 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>72</v>
+      </c>
       <c r="B324">
         <v>2</v>
       </c>
@@ -3328,16 +4301,25 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>73</v>
+      </c>
       <c r="B326">
         <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>73</v>
+      </c>
       <c r="B327">
         <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>73</v>
+      </c>
       <c r="B328">
         <v>8</v>
       </c>
@@ -3351,61 +4333,97 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>74</v>
+      </c>
       <c r="B330">
         <v>36</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>74</v>
+      </c>
       <c r="B331">
         <v>34</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>74</v>
+      </c>
       <c r="B332">
         <v>26</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>74</v>
+      </c>
       <c r="B333">
         <v>14</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>74</v>
+      </c>
       <c r="B334">
         <v>32</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>74</v>
+      </c>
       <c r="B335">
         <v>38</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>74</v>
+      </c>
       <c r="B336">
         <v>29</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>74</v>
+      </c>
       <c r="B337">
         <v>27</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>74</v>
+      </c>
       <c r="B338">
         <v>28</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>74</v>
+      </c>
       <c r="B339">
         <v>39</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>74</v>
+      </c>
       <c r="B340">
         <v>37</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>74</v>
+      </c>
       <c r="B341">
         <v>21</v>
       </c>
@@ -3419,11 +4437,17 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>75</v>
+      </c>
       <c r="B343">
         <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>75</v>
+      </c>
       <c r="B344">
         <v>5</v>
       </c>
@@ -3437,31 +4461,49 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>76</v>
+      </c>
       <c r="B346">
         <v>11</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>76</v>
+      </c>
       <c r="B347">
         <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>76</v>
+      </c>
       <c r="B348">
         <v>7</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>76</v>
+      </c>
       <c r="B349">
         <v>6</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>76</v>
+      </c>
       <c r="B350">
         <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>76</v>
+      </c>
       <c r="B351">
         <v>8</v>
       </c>
@@ -3475,11 +4517,17 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>77</v>
+      </c>
       <c r="B353">
         <v>12</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>77</v>
+      </c>
       <c r="B354">
         <v>15</v>
       </c>
@@ -3493,21 +4541,33 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>78</v>
+      </c>
       <c r="B356">
         <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>78</v>
+      </c>
       <c r="B357">
         <v>6</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>78</v>
+      </c>
       <c r="B358">
         <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>78</v>
+      </c>
       <c r="B359">
         <v>8</v>
       </c>
@@ -3521,51 +4581,81 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>79</v>
+      </c>
       <c r="B361">
         <v>3</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>79</v>
+      </c>
       <c r="B362">
         <v>7</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>79</v>
+      </c>
       <c r="B363">
         <v>5</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>79</v>
+      </c>
       <c r="B364">
         <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>79</v>
+      </c>
       <c r="B365">
         <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>79</v>
+      </c>
       <c r="B366">
         <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>79</v>
+      </c>
       <c r="B367">
         <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>79</v>
+      </c>
       <c r="B368">
         <v>14</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>79</v>
+      </c>
       <c r="B369">
         <v>12</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>79</v>
+      </c>
       <c r="B370">
         <v>1</v>
       </c>
@@ -3579,6 +4669,9 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>80</v>
+      </c>
       <c r="B372">
         <v>13</v>
       </c>
@@ -3592,21 +4685,33 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>81</v>
+      </c>
       <c r="B374">
         <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>81</v>
+      </c>
       <c r="B375">
         <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>81</v>
+      </c>
       <c r="B376">
         <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>81</v>
+      </c>
       <c r="B377">
         <v>12</v>
       </c>
@@ -3628,16 +4733,25 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>83</v>
+      </c>
       <c r="B380">
         <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>83</v>
+      </c>
       <c r="B381">
         <v>7</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>83</v>
+      </c>
       <c r="B382">
         <v>9</v>
       </c>
@@ -3659,21 +4773,33 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>85</v>
+      </c>
       <c r="B385">
         <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>85</v>
+      </c>
       <c r="B386">
         <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>85</v>
+      </c>
       <c r="B387">
         <v>7</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>85</v>
+      </c>
       <c r="B388">
         <v>8</v>
       </c>
@@ -3687,21 +4813,33 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>86</v>
+      </c>
       <c r="B390">
         <v>6</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>86</v>
+      </c>
       <c r="B391">
         <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>86</v>
+      </c>
       <c r="B392">
         <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>86</v>
+      </c>
       <c r="B393">
         <v>10</v>
       </c>
@@ -3715,6 +4853,9 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>87</v>
+      </c>
       <c r="B395">
         <v>6</v>
       </c>
@@ -3736,91 +4877,145 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>89</v>
+      </c>
       <c r="B398">
         <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>89</v>
+      </c>
       <c r="B399">
         <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>89</v>
+      </c>
       <c r="B400">
         <v>5</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>89</v>
+      </c>
       <c r="B401">
         <v>7</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>89</v>
+      </c>
       <c r="B402">
         <v>16</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>89</v>
+      </c>
       <c r="B403">
         <v>15</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>89</v>
+      </c>
       <c r="B404">
         <v>20</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>89</v>
+      </c>
       <c r="B405">
         <v>18</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>89</v>
+      </c>
       <c r="B406">
         <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>89</v>
+      </c>
       <c r="B407">
         <v>19</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>89</v>
+      </c>
       <c r="B408">
         <v>12</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>89</v>
+      </c>
       <c r="B409">
         <v>8</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>89</v>
+      </c>
       <c r="B410">
         <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>89</v>
+      </c>
       <c r="B411">
         <v>11</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>89</v>
+      </c>
       <c r="B412">
         <v>6</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>89</v>
+      </c>
       <c r="B413">
         <v>17</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>89</v>
+      </c>
       <c r="B414">
         <v>14</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>89</v>
+      </c>
       <c r="B415">
         <v>13</v>
       </c>
@@ -3833,97 +5028,154 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>90</v>
+      </c>
       <c r="B417">
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>90</v>
+      </c>
       <c r="B418">
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>90</v>
+      </c>
       <c r="B419">
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>90</v>
+      </c>
       <c r="B420">
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>90</v>
+      </c>
       <c r="B421">
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>90</v>
+      </c>
       <c r="B422">
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>90</v>
+      </c>
       <c r="B423">
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>90</v>
+      </c>
       <c r="B424">
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>90</v>
+      </c>
       <c r="B425">
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>90</v>
+      </c>
       <c r="B426">
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>90</v>
+      </c>
       <c r="B427">
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>90</v>
+      </c>
       <c r="B428">
         <v>30</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>90</v>
+      </c>
       <c r="B429">
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>90</v>
+      </c>
       <c r="B430">
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>90</v>
+      </c>
       <c r="B431">
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>90</v>
+      </c>
       <c r="B432">
         <v>28</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>90</v>
+      </c>
       <c r="B433">
         <v>18</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>90</v>
+      </c>
       <c r="B434">
         <v>15</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>90</v>
+      </c>
       <c r="B435">
         <v>13</v>
       </c>
@@ -3937,56 +5189,89 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>91</v>
+      </c>
       <c r="B437">
         <v>5</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>91</v>
+      </c>
       <c r="B438">
         <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>91</v>
+      </c>
       <c r="B439">
         <v>13</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>91</v>
+      </c>
       <c r="B440">
         <v>7</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>91</v>
+      </c>
       <c r="B441">
         <v>14</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>91</v>
+      </c>
       <c r="B442">
         <v>11</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>91</v>
+      </c>
       <c r="B443">
         <v>10</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>91</v>
+      </c>
       <c r="B444">
         <v>6</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>91</v>
+      </c>
       <c r="B445">
         <v>15</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>91</v>
+      </c>
       <c r="B446">
         <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>91</v>
+      </c>
       <c r="B447">
         <v>12</v>
       </c>
@@ -4000,31 +5285,49 @@
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>92</v>
+      </c>
       <c r="B449">
         <v>11</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>92</v>
+      </c>
       <c r="B450">
         <v>12</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>92</v>
+      </c>
       <c r="B451">
         <v>14</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>92</v>
+      </c>
       <c r="B452">
         <v>13</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>92</v>
+      </c>
       <c r="B453">
         <v>10</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>92</v>
+      </c>
       <c r="B454">
         <v>9</v>
       </c>
@@ -4038,46 +5341,73 @@
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>93</v>
+      </c>
       <c r="B456">
         <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>93</v>
+      </c>
       <c r="B457">
         <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>93</v>
+      </c>
       <c r="B458">
         <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>93</v>
+      </c>
       <c r="B459">
         <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>93</v>
+      </c>
       <c r="B460">
         <v>6</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>93</v>
+      </c>
       <c r="B461">
         <v>7</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>93</v>
+      </c>
       <c r="B462">
         <v>8</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>93</v>
+      </c>
       <c r="B463">
         <v>9</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>93</v>
+      </c>
       <c r="B464">
         <v>10</v>
       </c>
@@ -4091,66 +5421,105 @@
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>94</v>
+      </c>
       <c r="B466">
         <v>28</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>94</v>
+      </c>
       <c r="B467">
         <v>16</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>94</v>
+      </c>
       <c r="B468">
         <v>23</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>94</v>
+      </c>
       <c r="B469">
         <v>19</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>94</v>
+      </c>
       <c r="B470">
         <v>17</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>94</v>
+      </c>
       <c r="B471">
         <v>29</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>94</v>
+      </c>
       <c r="B472">
         <v>30</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>94</v>
+      </c>
       <c r="B473">
         <v>27</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>94</v>
+      </c>
       <c r="B474">
         <v>24</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>94</v>
+      </c>
       <c r="B475">
         <v>26</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>94</v>
+      </c>
       <c r="B476">
         <v>18</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>94</v>
+      </c>
       <c r="B477">
         <v>21</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>94</v>
+      </c>
       <c r="B478">
         <v>20</v>
       </c>
@@ -4164,76 +5533,121 @@
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>95</v>
+      </c>
       <c r="B480">
         <v>12</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>95</v>
+      </c>
       <c r="B481">
         <v>4</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>95</v>
+      </c>
       <c r="B482">
         <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>95</v>
+      </c>
       <c r="B483">
         <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>95</v>
+      </c>
       <c r="B484">
         <v>14</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>95</v>
+      </c>
       <c r="B485">
         <v>13</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>95</v>
+      </c>
       <c r="B486">
         <v>9</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>95</v>
+      </c>
       <c r="B487">
         <v>5</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>95</v>
+      </c>
       <c r="B488">
         <v>27</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>95</v>
+      </c>
       <c r="B489">
         <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>95</v>
+      </c>
       <c r="B490">
         <v>6</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>95</v>
+      </c>
       <c r="B491">
         <v>8</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>95</v>
+      </c>
       <c r="B492">
         <v>7</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>95</v>
+      </c>
       <c r="B493">
         <v>10</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>95</v>
+      </c>
       <c r="B494">
         <v>11</v>
       </c>
@@ -4247,21 +5661,33 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>96</v>
+      </c>
       <c r="B496">
         <v>7</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>96</v>
+      </c>
       <c r="B497">
         <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>96</v>
+      </c>
       <c r="B498">
         <v>11</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>96</v>
+      </c>
       <c r="B499">
         <v>10</v>
       </c>
@@ -4275,31 +5701,49 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>97</v>
+      </c>
       <c r="B501">
         <v>8</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>97</v>
+      </c>
       <c r="B502">
         <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>97</v>
+      </c>
       <c r="B503">
         <v>10</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>97</v>
+      </c>
       <c r="B504">
         <v>11</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>97</v>
+      </c>
       <c r="B505">
         <v>12</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>97</v>
+      </c>
       <c r="B506">
         <v>9</v>
       </c>
@@ -4313,16 +5757,25 @@
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>98</v>
+      </c>
       <c r="B508">
         <v>13</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>98</v>
+      </c>
       <c r="B509">
         <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>98</v>
+      </c>
       <c r="B510">
         <v>14</v>
       </c>
@@ -4344,6 +5797,9 @@
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>100</v>
+      </c>
       <c r="B513">
         <v>17</v>
       </c>
@@ -4357,51 +5813,81 @@
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>101</v>
+      </c>
       <c r="B515">
         <v>25</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>101</v>
+      </c>
       <c r="B516">
         <v>6</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>101</v>
+      </c>
       <c r="B517">
         <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>101</v>
+      </c>
       <c r="B518">
         <v>15</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>101</v>
+      </c>
       <c r="B519">
         <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>101</v>
+      </c>
       <c r="B520">
         <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>101</v>
+      </c>
       <c r="B521">
         <v>14</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>101</v>
+      </c>
       <c r="B522">
         <v>5</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>101</v>
+      </c>
       <c r="B523">
         <v>13</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>101</v>
+      </c>
       <c r="B524">
         <v>7</v>
       </c>
@@ -4415,26 +5901,41 @@
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>102</v>
+      </c>
       <c r="B526">
         <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>102</v>
+      </c>
       <c r="B527">
         <v>8</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>102</v>
+      </c>
       <c r="B528">
         <v>11</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>102</v>
+      </c>
       <c r="B529">
         <v>13</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>102</v>
+      </c>
       <c r="B530">
         <v>9</v>
       </c>
@@ -4448,11 +5949,17 @@
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>103</v>
+      </c>
       <c r="B532">
         <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>103</v>
+      </c>
       <c r="B533">
         <v>3</v>
       </c>
@@ -4466,11 +5973,17 @@
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>104</v>
+      </c>
       <c r="B535">
         <v>6</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>104</v>
+      </c>
       <c r="B536">
         <v>9</v>
       </c>
@@ -4484,26 +5997,41 @@
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>105</v>
+      </c>
       <c r="B538">
         <v>4</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>105</v>
+      </c>
       <c r="B539">
         <v>6</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>105</v>
+      </c>
       <c r="B540">
         <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>105</v>
+      </c>
       <c r="B541">
         <v>7</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>105</v>
+      </c>
       <c r="B542">
         <v>5</v>
       </c>
@@ -4517,6 +6045,9 @@
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>106</v>
+      </c>
       <c r="B544">
         <v>6</v>
       </c>
@@ -4530,31 +6061,49 @@
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>107</v>
+      </c>
       <c r="B546">
         <v>11</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>107</v>
+      </c>
       <c r="B547">
         <v>12</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>107</v>
+      </c>
       <c r="B548">
         <v>6</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>107</v>
+      </c>
       <c r="B549">
         <v>10</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>107</v>
+      </c>
       <c r="B550">
         <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>107</v>
+      </c>
       <c r="B551">
         <v>9</v>
       </c>
@@ -4568,31 +6117,49 @@
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>108</v>
+      </c>
       <c r="B553">
         <v>9</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>108</v>
+      </c>
       <c r="B554">
         <v>11</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>108</v>
+      </c>
       <c r="B555">
         <v>8</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>108</v>
+      </c>
       <c r="B556">
         <v>3</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>108</v>
+      </c>
       <c r="B557">
         <v>6</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>108</v>
+      </c>
       <c r="B558">
         <v>7</v>
       </c>
@@ -4606,16 +6173,25 @@
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>109</v>
+      </c>
       <c r="B560">
         <v>16</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>109</v>
+      </c>
       <c r="B561">
         <v>14</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>109</v>
+      </c>
       <c r="B562">
         <v>13</v>
       </c>
@@ -4629,41 +6205,65 @@
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>110</v>
+      </c>
       <c r="B564">
         <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>110</v>
+      </c>
       <c r="B565">
         <v>3</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>110</v>
+      </c>
       <c r="B566">
         <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>110</v>
+      </c>
       <c r="B567">
         <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>110</v>
+      </c>
       <c r="B568">
         <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>110</v>
+      </c>
       <c r="B569">
         <v>7</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>110</v>
+      </c>
       <c r="B570">
         <v>4</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>110</v>
+      </c>
       <c r="B571">
         <v>5</v>
       </c>
@@ -4677,6 +6277,9 @@
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>111</v>
+      </c>
       <c r="B573">
         <v>2</v>
       </c>
@@ -4690,41 +6293,65 @@
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>112</v>
+      </c>
       <c r="B575">
         <v>25</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>112</v>
+      </c>
       <c r="B576">
         <v>21</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>112</v>
+      </c>
       <c r="B577">
         <v>20</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>112</v>
+      </c>
       <c r="B578">
         <v>24</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>112</v>
+      </c>
       <c r="B579">
         <v>22</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>112</v>
+      </c>
       <c r="B580">
         <v>27</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>112</v>
+      </c>
       <c r="B581">
         <v>18</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>112</v>
+      </c>
       <c r="B582">
         <v>5</v>
       </c>
@@ -4738,16 +6365,25 @@
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>113</v>
+      </c>
       <c r="B584">
         <v>17</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>113</v>
+      </c>
       <c r="B585">
         <v>18</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>113</v>
+      </c>
       <c r="B586">
         <v>7</v>
       </c>
@@ -4761,16 +6397,25 @@
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>114</v>
+      </c>
       <c r="B588">
         <v>18</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>114</v>
+      </c>
       <c r="B589">
         <v>19</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>114</v>
+      </c>
       <c r="B590">
         <v>20</v>
       </c>
@@ -4784,41 +6429,65 @@
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>115</v>
+      </c>
       <c r="B592">
         <v>19</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>115</v>
+      </c>
       <c r="B593">
         <v>25</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>115</v>
+      </c>
       <c r="B594">
         <v>32</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>115</v>
+      </c>
       <c r="B595">
         <v>34</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>115</v>
+      </c>
       <c r="B596">
         <v>29</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>115</v>
+      </c>
       <c r="B597">
         <v>26</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>115</v>
+      </c>
       <c r="B598">
         <v>27</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>115</v>
+      </c>
       <c r="B599">
         <v>4</v>
       </c>
@@ -4832,61 +6501,97 @@
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>116</v>
+      </c>
       <c r="B601">
         <v>14</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>116</v>
+      </c>
       <c r="B602">
         <v>15</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>116</v>
+      </c>
       <c r="B603">
         <v>4</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>116</v>
+      </c>
       <c r="B604">
         <v>10</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>116</v>
+      </c>
       <c r="B605">
         <v>11</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>116</v>
+      </c>
       <c r="B606">
         <v>13</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>116</v>
+      </c>
       <c r="B607">
         <v>7</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>116</v>
+      </c>
       <c r="B608">
         <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>116</v>
+      </c>
       <c r="B609">
         <v>3</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>116</v>
+      </c>
       <c r="B610">
         <v>9</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>116</v>
+      </c>
       <c r="B611">
         <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>116</v>
+      </c>
       <c r="B612">
         <v>12</v>
       </c>
@@ -4905,31 +6610,49 @@
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>118</v>
+      </c>
       <c r="B615">
         <v>45</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>118</v>
+      </c>
       <c r="B616">
         <v>39</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>118</v>
+      </c>
       <c r="B617">
         <v>7</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>118</v>
+      </c>
       <c r="B618">
         <v>10</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>118</v>
+      </c>
       <c r="B619">
         <v>40</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>118</v>
+      </c>
       <c r="B620">
         <v>6</v>
       </c>
@@ -4943,66 +6666,105 @@
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>119</v>
+      </c>
       <c r="B622">
         <v>50</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>119</v>
+      </c>
       <c r="B623">
         <v>53</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>119</v>
+      </c>
       <c r="B624">
         <v>31</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>119</v>
+      </c>
       <c r="B625">
         <v>54</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>119</v>
+      </c>
       <c r="B626">
         <v>55</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>119</v>
+      </c>
       <c r="B627">
         <v>48</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>119</v>
+      </c>
       <c r="B628">
         <v>40</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>119</v>
+      </c>
       <c r="B629">
         <v>39</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>119</v>
+      </c>
       <c r="B630">
         <v>43</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>119</v>
+      </c>
       <c r="B631">
         <v>38</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>119</v>
+      </c>
       <c r="B632">
         <v>41</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>119</v>
+      </c>
       <c r="B633">
         <v>47</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>119</v>
+      </c>
       <c r="B634">
         <v>42</v>
       </c>
@@ -5016,6 +6778,9 @@
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>62</v>
+      </c>
       <c r="B636">
         <v>6</v>
       </c>
@@ -5029,11 +6794,17 @@
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>120</v>
+      </c>
       <c r="B638">
         <v>26</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>120</v>
+      </c>
       <c r="B639">
         <v>27</v>
       </c>
@@ -5047,16 +6818,25 @@
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>121</v>
+      </c>
       <c r="B641">
         <v>359</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>121</v>
+      </c>
       <c r="B642">
         <v>3816</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>121</v>
+      </c>
       <c r="B643">
         <v>2902</v>
       </c>
@@ -5070,46 +6850,73 @@
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>122</v>
+      </c>
       <c r="B645">
         <v>5</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>122</v>
+      </c>
       <c r="B646">
         <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>122</v>
+      </c>
       <c r="B647">
         <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>122</v>
+      </c>
       <c r="B648">
         <v>8</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>122</v>
+      </c>
       <c r="B649">
         <v>10</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>122</v>
+      </c>
       <c r="B650">
         <v>9</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>122</v>
+      </c>
       <c r="B651">
         <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>122</v>
+      </c>
       <c r="B652">
         <v>6</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>122</v>
+      </c>
       <c r="B653">
         <v>7</v>
       </c>
@@ -5123,26 +6930,41 @@
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>123</v>
+      </c>
       <c r="B655">
         <v>6</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>123</v>
+      </c>
       <c r="B656">
         <v>9</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>123</v>
+      </c>
       <c r="B657">
         <v>4</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>123</v>
+      </c>
       <c r="B658">
         <v>7</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>123</v>
+      </c>
       <c r="B659">
         <v>1</v>
       </c>
@@ -5156,26 +6978,41 @@
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>124</v>
+      </c>
       <c r="B661">
         <v>5</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>124</v>
+      </c>
       <c r="B662">
         <v>6</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>124</v>
+      </c>
       <c r="B663">
         <v>3</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>124</v>
+      </c>
       <c r="B664">
         <v>4</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>124</v>
+      </c>
       <c r="B665">
         <v>9</v>
       </c>
@@ -5189,26 +7026,41 @@
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>125</v>
+      </c>
       <c r="B667">
         <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>125</v>
+      </c>
       <c r="B668">
         <v>7</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>125</v>
+      </c>
       <c r="B669">
         <v>5</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>125</v>
+      </c>
       <c r="B670">
         <v>6</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>125</v>
+      </c>
       <c r="B671">
         <v>3</v>
       </c>
@@ -5222,41 +7074,65 @@
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>126</v>
+      </c>
       <c r="B673">
         <v>5</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>126</v>
+      </c>
       <c r="B674">
         <v>8</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>126</v>
+      </c>
       <c r="B675">
         <v>7</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>126</v>
+      </c>
       <c r="B676">
         <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>126</v>
+      </c>
       <c r="B677">
         <v>3</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>126</v>
+      </c>
       <c r="B678">
         <v>9</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>126</v>
+      </c>
       <c r="B679">
         <v>4</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>126</v>
+      </c>
       <c r="B680">
         <v>1</v>
       </c>
@@ -5270,41 +7146,65 @@
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>127</v>
+      </c>
       <c r="B682">
         <v>10</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>127</v>
+      </c>
       <c r="B683">
         <v>5</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>127</v>
+      </c>
       <c r="B684">
         <v>4</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>127</v>
+      </c>
       <c r="B685">
         <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>127</v>
+      </c>
       <c r="B686">
         <v>3</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>127</v>
+      </c>
       <c r="B687">
         <v>6</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>127</v>
+      </c>
       <c r="B688">
         <v>8</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>127</v>
+      </c>
       <c r="B689">
         <v>7</v>
       </c>
@@ -5318,41 +7218,65 @@
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>128</v>
+      </c>
       <c r="B691">
         <v>10</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>128</v>
+      </c>
       <c r="B692">
         <v>3</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>128</v>
+      </c>
       <c r="B693">
         <v>4</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>128</v>
+      </c>
       <c r="B694">
         <v>8</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>128</v>
+      </c>
       <c r="B695">
         <v>9</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>128</v>
+      </c>
       <c r="B696">
         <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>128</v>
+      </c>
       <c r="B697">
         <v>6</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>128</v>
+      </c>
       <c r="B698">
         <v>1</v>
       </c>
@@ -5366,41 +7290,65 @@
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>129</v>
+      </c>
       <c r="B700">
         <v>6</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>129</v>
+      </c>
       <c r="B701">
         <v>8</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>129</v>
+      </c>
       <c r="B702">
         <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>129</v>
+      </c>
       <c r="B703">
         <v>3</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>129</v>
+      </c>
       <c r="B704">
         <v>9</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>129</v>
+      </c>
       <c r="B705">
         <v>4</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>129</v>
+      </c>
       <c r="B706">
         <v>5</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>129</v>
+      </c>
       <c r="B707">
         <v>10</v>
       </c>
@@ -5422,31 +7370,49 @@
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>131</v>
+      </c>
       <c r="B710">
         <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>131</v>
+      </c>
       <c r="B711">
         <v>8</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>131</v>
+      </c>
       <c r="B712">
         <v>9</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>131</v>
+      </c>
       <c r="B713">
         <v>4</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>131</v>
+      </c>
       <c r="B714">
         <v>6</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>131</v>
+      </c>
       <c r="B715">
         <v>10</v>
       </c>
@@ -5460,46 +7426,73 @@
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>132</v>
+      </c>
       <c r="B717">
         <v>10</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>132</v>
+      </c>
       <c r="B718">
         <v>4</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>132</v>
+      </c>
       <c r="B719">
         <v>3</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>132</v>
+      </c>
       <c r="B720">
         <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>132</v>
+      </c>
       <c r="B721">
         <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>132</v>
+      </c>
       <c r="B722">
         <v>7</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>132</v>
+      </c>
       <c r="B723">
         <v>9</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>132</v>
+      </c>
       <c r="B724">
         <v>6</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>132</v>
+      </c>
       <c r="B725">
         <v>8</v>
       </c>
@@ -5513,16 +7506,25 @@
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>133</v>
+      </c>
       <c r="B727">
         <v>6</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>133</v>
+      </c>
       <c r="B728">
         <v>9</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>133</v>
+      </c>
       <c r="B729">
         <v>7</v>
       </c>
@@ -5536,11 +7538,17 @@
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>134</v>
+      </c>
       <c r="B731">
         <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>134</v>
+      </c>
       <c r="B732">
         <v>3</v>
       </c>
@@ -5554,41 +7562,65 @@
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>135</v>
+      </c>
       <c r="B734">
         <v>12</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>135</v>
+      </c>
       <c r="B735">
         <v>20</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>135</v>
+      </c>
       <c r="B736">
         <v>14</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>135</v>
+      </c>
       <c r="B737">
         <v>15</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>135</v>
+      </c>
       <c r="B738">
         <v>17</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>135</v>
+      </c>
       <c r="B739">
         <v>18</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>135</v>
+      </c>
       <c r="B740">
         <v>4</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>135</v>
+      </c>
       <c r="B741">
         <v>9</v>
       </c>
@@ -5602,31 +7634,49 @@
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>136</v>
+      </c>
       <c r="B743">
         <v>12</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>136</v>
+      </c>
       <c r="B744">
         <v>8</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>136</v>
+      </c>
       <c r="B745">
         <v>14</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>136</v>
+      </c>
       <c r="B746">
         <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>136</v>
+      </c>
       <c r="B747">
         <v>10</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>136</v>
+      </c>
       <c r="B748">
         <v>17</v>
       </c>
@@ -5640,51 +7690,81 @@
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>137</v>
+      </c>
       <c r="B750">
         <v>8</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>137</v>
+      </c>
       <c r="B751">
         <v>15</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>137</v>
+      </c>
       <c r="B752">
         <v>26</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>137</v>
+      </c>
       <c r="B753">
         <v>6</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>137</v>
+      </c>
       <c r="B754">
         <v>9</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>137</v>
+      </c>
       <c r="B755">
         <v>7</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>137</v>
+      </c>
       <c r="B756">
         <v>5</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>137</v>
+      </c>
       <c r="B757">
         <v>13</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>137</v>
+      </c>
       <c r="B758">
         <v>14</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>137</v>
+      </c>
       <c r="B759">
         <v>2</v>
       </c>
@@ -5698,26 +7778,41 @@
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>138</v>
+      </c>
       <c r="B761">
         <v>5</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>138</v>
+      </c>
       <c r="B762">
         <v>4</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>138</v>
+      </c>
       <c r="B763">
         <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>138</v>
+      </c>
       <c r="B764">
         <v>10</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>138</v>
+      </c>
       <c r="B765">
         <v>7</v>
       </c>
@@ -5731,61 +7826,97 @@
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>139</v>
+      </c>
       <c r="B767">
         <v>47</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>139</v>
+      </c>
       <c r="B768">
         <v>53</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>139</v>
+      </c>
       <c r="B769">
         <v>67</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>139</v>
+      </c>
       <c r="B770">
         <v>95</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>139</v>
+      </c>
       <c r="B771">
         <v>98</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>139</v>
+      </c>
       <c r="B772">
         <v>99</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>139</v>
+      </c>
       <c r="B773">
         <v>100</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>139</v>
+      </c>
       <c r="B774">
         <v>105</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>139</v>
+      </c>
       <c r="B775">
         <v>106</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>139</v>
+      </c>
       <c r="B776">
         <v>107</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>139</v>
+      </c>
       <c r="B777">
         <v>109</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>139</v>
+      </c>
       <c r="B778">
         <v>110</v>
       </c>
@@ -5799,26 +7930,41 @@
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>140</v>
+      </c>
       <c r="B780">
         <v>17</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>140</v>
+      </c>
       <c r="B781">
         <v>21</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>140</v>
+      </c>
       <c r="B782">
         <v>18</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>140</v>
+      </c>
       <c r="B783">
         <v>22</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>140</v>
+      </c>
       <c r="B784">
         <v>23</v>
       </c>
@@ -5832,41 +7978,65 @@
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>141</v>
+      </c>
       <c r="B786">
         <v>27</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>141</v>
+      </c>
       <c r="B787">
         <v>31</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>141</v>
+      </c>
       <c r="B788">
         <v>33</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>141</v>
+      </c>
       <c r="B789">
         <v>44</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>141</v>
+      </c>
       <c r="B790">
         <v>45</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>141</v>
+      </c>
       <c r="B791">
         <v>47</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>141</v>
+      </c>
       <c r="B792">
         <v>55</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>141</v>
+      </c>
       <c r="B793">
         <v>58</v>
       </c>
@@ -5880,6 +8050,9 @@
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>142</v>
+      </c>
       <c r="B795">
         <v>9</v>
       </c>
@@ -5893,16 +8066,25 @@
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>143</v>
+      </c>
       <c r="B797">
         <v>3</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>143</v>
+      </c>
       <c r="B798">
         <v>4</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>143</v>
+      </c>
       <c r="B799">
         <v>5</v>
       </c>
@@ -5916,36 +8098,57 @@
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>146</v>
+      </c>
       <c r="B801">
         <v>348</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>146</v>
+      </c>
       <c r="B802">
         <v>343</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>146</v>
+      </c>
       <c r="B803">
         <v>346</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>146</v>
+      </c>
       <c r="B804">
         <v>350</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>146</v>
+      </c>
       <c r="B805">
         <v>308</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>146</v>
+      </c>
       <c r="B806">
         <v>351</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>146</v>
+      </c>
       <c r="B807">
         <v>344</v>
       </c>
@@ -5959,31 +8162,49 @@
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>147</v>
+      </c>
       <c r="B809">
         <v>22</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>147</v>
+      </c>
       <c r="B810">
         <v>23</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>147</v>
+      </c>
       <c r="B811">
         <v>24</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>147</v>
+      </c>
       <c r="B812">
         <v>19</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>147</v>
+      </c>
       <c r="B813">
         <v>16</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>147</v>
+      </c>
       <c r="B814">
         <v>20</v>
       </c>
@@ -5994,6 +8215,150 @@
       </c>
       <c r="B815">
         <v>20</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>375</v>
+      </c>
+      <c r="B816">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>83</v>
+      </c>
+      <c r="B817">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>376</v>
+      </c>
+      <c r="B818">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>137</v>
+      </c>
+      <c r="B819">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>15</v>
+      </c>
+      <c r="B820">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>99</v>
+      </c>
+      <c r="B821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>390</v>
+      </c>
+      <c r="B822">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>99</v>
+      </c>
+      <c r="B823">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>84</v>
+      </c>
+      <c r="B824">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>146</v>
+      </c>
+      <c r="B825">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>139</v>
+      </c>
+      <c r="B826">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>182</v>
+      </c>
+      <c r="B827">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>44</v>
+      </c>
+      <c r="B828">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>415</v>
+      </c>
+      <c r="B829">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>130</v>
+      </c>
+      <c r="B830">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>66</v>
+      </c>
+      <c r="B831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>415</v>
+      </c>
+      <c r="B832">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>115</v>
+      </c>
+      <c r="B833">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6027,13 +8392,13 @@
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6041,10 +8406,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6052,10 +8417,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6063,10 +8428,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6074,10 +8439,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6085,10 +8450,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6096,10 +8461,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6107,10 +8472,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6118,10 +8483,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6129,10 +8494,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6140,10 +8505,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6151,10 +8516,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6162,10 +8527,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6173,10 +8538,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6184,10 +8549,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6195,10 +8560,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6206,10 +8571,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6217,10 +8582,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6228,10 +8593,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6239,10 +8604,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6250,10 +8615,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6261,10 +8626,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6272,10 +8637,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6283,10 +8648,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6294,10 +8659,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6305,10 +8670,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,10 +8681,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,10 +8692,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6338,10 +8703,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,10 +8714,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6360,10 +8725,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6371,10 +8736,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6382,10 +8747,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -6393,10 +8758,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -6404,10 +8769,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,10 +8780,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6426,10 +8791,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6437,10 +8802,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6448,10 +8813,10 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6459,10 +8824,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6470,10 +8835,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6481,10 +8846,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6492,10 +8857,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,10 +8868,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6514,10 +8879,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,10 +8890,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6536,10 +8901,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6547,10 +8912,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6558,10 +8923,10 @@
         <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,10 +8934,10 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6580,10 +8945,10 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6591,10 +8956,10 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6602,10 +8967,10 @@
         <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6613,10 +8978,10 @@
         <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6624,10 +8989,10 @@
         <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6635,10 +9000,10 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6646,10 +9011,10 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,10 +9022,10 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6668,10 +9033,10 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -6679,10 +9044,10 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6690,10 +9055,10 @@
         <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6701,10 +9066,10 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6712,10 +9077,10 @@
         <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6723,10 +9088,10 @@
         <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -6734,10 +9099,10 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -6745,10 +9110,10 @@
         <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6756,10 +9121,10 @@
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -6767,10 +9132,10 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -6778,10 +9143,10 @@
         <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -6789,21 +9154,21 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -6811,10 +9176,10 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -6822,10 +9187,10 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -6833,10 +9198,10 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,10 +9209,10 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -6855,10 +9220,10 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -6866,10 +9231,10 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,10 +9242,10 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -6888,10 +9253,10 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -6899,10 +9264,10 @@
         <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -6910,10 +9275,10 @@
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -6921,10 +9286,10 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -6932,10 +9297,10 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6943,10 +9308,10 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -6954,10 +9319,10 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -6965,10 +9330,10 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -6976,10 +9341,10 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -6987,10 +9352,10 @@
         <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -6998,10 +9363,10 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -7009,21 +9374,21 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7031,10 +9396,10 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -7042,21 +9407,21 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7064,10 +9429,10 @@
         <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -7075,10 +9440,10 @@
         <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -7086,10 +9451,10 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -7097,10 +9462,10 @@
         <v>105</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -7108,10 +9473,10 @@
         <v>106</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,10 +9484,10 @@
         <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -7130,10 +9495,10 @@
         <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -7141,10 +9506,10 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -7152,10 +9517,10 @@
         <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -7163,10 +9528,10 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -7174,10 +9539,10 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -7185,10 +9550,10 @@
         <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -7196,10 +9561,10 @@
         <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -7207,10 +9572,10 @@
         <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -7218,10 +9583,10 @@
         <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -7229,10 +9594,10 @@
         <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -7240,10 +9605,10 @@
         <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -7251,10 +9616,10 @@
         <v>124</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -7262,10 +9627,10 @@
         <v>125</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -7273,10 +9638,10 @@
         <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -7284,10 +9649,10 @@
         <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -7295,10 +9660,10 @@
         <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -7306,21 +9671,21 @@
         <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B118" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -7328,10 +9693,10 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,10 +9704,10 @@
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -7350,10 +9715,10 @@
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -7361,21 +9726,21 @@
         <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -7383,10 +9748,10 @@
         <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -7394,10 +9759,10 @@
         <v>134</v>
       </c>
       <c r="B125" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -7405,10 +9770,10 @@
         <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -7416,10 +9781,10 @@
         <v>136</v>
       </c>
       <c r="B127" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -7427,10 +9792,10 @@
         <v>139</v>
       </c>
       <c r="B128" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -7438,10 +9803,10 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -7449,10 +9814,10 @@
         <v>146</v>
       </c>
       <c r="B130" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -7460,10 +9825,10 @@
         <v>147</v>
       </c>
       <c r="B131" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -7471,7 +9836,7 @@
         <v>145</v>
       </c>
       <c r="B132" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -7479,7 +9844,7 @@
         <v>144</v>
       </c>
       <c r="B133" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -7487,10 +9852,10 @@
         <v>149</v>
       </c>
       <c r="B134" t="s">
+        <v>316</v>
+      </c>
+      <c r="D134" t="s">
         <v>319</v>
-      </c>
-      <c r="D134" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -7498,7 +9863,7 @@
         <v>148</v>
       </c>
       <c r="B135" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -7532,15 +9897,15 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>365</v>
@@ -7548,32 +9913,32 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C5">
         <v>365</v>
@@ -7587,11 +9952,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" activeCellId="1" sqref="A7 C7"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7600,7 +9965,7 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
@@ -7620,184 +9985,420 @@
         <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G2">
         <v>4000</v>
       </c>
       <c r="H2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" t="s">
+        <v>331</v>
+      </c>
+      <c r="L2" t="s">
         <v>332</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>333</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C3" t="s">
         <v>334</v>
       </c>
-      <c r="K2" t="s">
+      <c r="E3" s="7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
         <v>336</v>
       </c>
-      <c r="C3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" t="s">
         <v>344</v>
-      </c>
-      <c r="C4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F4" t="s">
-        <v>347</v>
       </c>
       <c r="G4">
         <v>19115</v>
       </c>
       <c r="H4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K4" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4">
+        <v>98011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" t="s">
         <v>348</v>
-      </c>
-      <c r="I4" t="s">
-        <v>333</v>
-      </c>
-      <c r="J4" t="s">
-        <v>334</v>
-      </c>
-      <c r="K4">
-        <v>98011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F5" t="s">
-        <v>351</v>
       </c>
       <c r="G5">
         <v>4139</v>
       </c>
       <c r="H5" t="s">
+        <v>349</v>
+      </c>
+      <c r="J5" t="s">
+        <v>330</v>
+      </c>
+      <c r="K5" t="s">
+        <v>331</v>
+      </c>
+      <c r="L5">
+        <v>98105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" t="s">
         <v>352</v>
       </c>
-      <c r="I5" t="s">
-        <v>333</v>
-      </c>
-      <c r="J5" t="s">
-        <v>334</v>
-      </c>
-      <c r="K5">
-        <v>98105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>355</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F6" t="s">
-        <v>358</v>
       </c>
       <c r="G6">
         <v>5043</v>
       </c>
       <c r="H6" t="s">
+        <v>356</v>
+      </c>
+      <c r="J6" t="s">
+        <v>330</v>
+      </c>
+      <c r="K6" t="s">
+        <v>331</v>
+      </c>
+      <c r="L6">
+        <v>98105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="I6" t="s">
-        <v>333</v>
-      </c>
-      <c r="J6" t="s">
-        <v>334</v>
-      </c>
-      <c r="K6">
-        <v>98105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F7" t="s">
         <v>360</v>
-      </c>
-      <c r="B7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F7" t="s">
-        <v>363</v>
       </c>
       <c r="G7">
         <v>14887</v>
       </c>
       <c r="H7" t="s">
-        <v>364</v>
-      </c>
-      <c r="I7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K7">
+        <v>362</v>
+      </c>
+      <c r="K7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L7">
         <v>97224</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8">
+        <v>6551</v>
+      </c>
+      <c r="H8" t="s">
+        <v>371</v>
+      </c>
+      <c r="J8" t="s">
+        <v>330</v>
+      </c>
+      <c r="K8" t="s">
+        <v>331</v>
+      </c>
+      <c r="L8">
+        <v>98115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9">
+        <v>902</v>
+      </c>
+      <c r="H9" t="s">
+        <v>382</v>
+      </c>
+      <c r="J9" t="s">
+        <v>330</v>
+      </c>
+      <c r="K9" t="s">
+        <v>331</v>
+      </c>
+      <c r="L9">
+        <v>98105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10">
+        <v>17718</v>
+      </c>
+      <c r="H10" t="s">
+        <v>387</v>
+      </c>
+      <c r="J10" t="s">
+        <v>388</v>
+      </c>
+      <c r="K10" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10">
+        <v>98052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G11">
+        <v>9217</v>
+      </c>
+      <c r="H11" t="s">
+        <v>395</v>
+      </c>
+      <c r="J11" t="s">
+        <v>396</v>
+      </c>
+      <c r="K11" t="s">
+        <v>397</v>
+      </c>
+      <c r="L11">
+        <v>95758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F12" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12">
+        <v>11011</v>
+      </c>
+      <c r="H12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J12" t="s">
+        <v>404</v>
+      </c>
+      <c r="K12" t="s">
+        <v>331</v>
+      </c>
+      <c r="L12">
+        <v>98004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G13" t="s">
+        <v>413</v>
+      </c>
+      <c r="H13" t="s">
+        <v>412</v>
+      </c>
+      <c r="J13" t="s">
+        <v>330</v>
+      </c>
+      <c r="K13" t="s">
+        <v>331</v>
+      </c>
+      <c r="L13">
+        <v>98105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" t="s">
+        <v>417</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G14" t="s">
+        <v>420</v>
+      </c>
+      <c r="H14" t="s">
+        <v>421</v>
+      </c>
+      <c r="J14" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" t="s">
+        <v>331</v>
+      </c>
+      <c r="L14">
+        <v>98112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H15" t="s">
+        <v>429</v>
+      </c>
+      <c r="J15" t="s">
+        <v>330</v>
+      </c>
+      <c r="K15" t="s">
+        <v>331</v>
+      </c>
+      <c r="L15">
+        <v>98115</v>
+      </c>
+    </row>
   </sheetData>
+  <dataConsolidate/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
@@ -7805,6 +10406,14 @@
     <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
     <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7812,11 +10421,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7828,14 +10437,14 @@
     <col min="6" max="7" width="19.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -7846,48 +10455,45 @@
         <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -7902,27 +10508,24 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J2" s="6">
-        <v>43259</v>
-      </c>
-      <c r="L2" s="6">
         <v>43014</v>
       </c>
-      <c r="M2">
+      <c r="L2" s="8">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -7940,24 +10543,21 @@
         <v>139</v>
       </c>
       <c r="J3" s="6">
-        <v>43259</v>
-      </c>
-      <c r="L3" s="6">
         <v>43014</v>
       </c>
-      <c r="M3">
+      <c r="L3" s="8">
         <v>20</v>
       </c>
-      <c r="O3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -7975,27 +10575,24 @@
         <v>115</v>
       </c>
       <c r="J4" s="6">
-        <v>43259</v>
-      </c>
-      <c r="L4" s="6">
         <v>42425</v>
       </c>
-      <c r="M4">
+      <c r="L4" s="8">
         <v>40</v>
       </c>
-      <c r="O4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
         <v>337</v>
-      </c>
-      <c r="C5" t="s">
-        <v>340</v>
       </c>
       <c r="E5">
         <v>1437691</v>
@@ -8007,21 +10604,18 @@
         <v>66</v>
       </c>
       <c r="J5" s="6">
-        <v>43259</v>
-      </c>
-      <c r="L5" s="6">
         <v>42677</v>
       </c>
-      <c r="M5">
+      <c r="L5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -8039,27 +10633,24 @@
         <v>99</v>
       </c>
       <c r="J6" s="6">
-        <v>43259</v>
-      </c>
-      <c r="L6" s="6">
         <v>43000</v>
       </c>
-      <c r="M6">
+      <c r="L6" s="8">
         <v>50</v>
       </c>
-      <c r="O6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D7">
         <v>1622482</v>
@@ -8074,24 +10665,21 @@
         <v>9</v>
       </c>
       <c r="J7" s="6">
-        <v>43103</v>
-      </c>
-      <c r="L7" s="6">
         <v>42738</v>
       </c>
-      <c r="M7">
+      <c r="L7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D8">
         <v>1622482</v>
@@ -8106,21 +10694,18 @@
         <v>3</v>
       </c>
       <c r="J8" s="6">
-        <v>43103</v>
-      </c>
-      <c r="L8" s="6">
         <v>42639</v>
       </c>
-      <c r="M8">
+      <c r="L8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -8138,24 +10723,21 @@
         <v>115</v>
       </c>
       <c r="J9" s="6">
-        <v>43259</v>
-      </c>
-      <c r="L9" s="6">
         <v>42283</v>
       </c>
-      <c r="M9">
+      <c r="L9" s="8">
         <v>40</v>
       </c>
-      <c r="O9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -8167,27 +10749,24 @@
         <v>1437691</v>
       </c>
       <c r="I10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J10" s="6">
-        <v>43103</v>
-      </c>
-      <c r="L10" s="6">
         <v>41534</v>
       </c>
-      <c r="M10">
+      <c r="L10" s="8">
         <v>40</v>
       </c>
-      <c r="O10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -8199,20 +10778,614 @@
         <v>1437691</v>
       </c>
       <c r="I11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J11" s="6">
-        <v>43103</v>
-      </c>
-      <c r="L11" s="6">
         <v>42265</v>
       </c>
-      <c r="M11">
+      <c r="L11" s="8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>1625725</v>
+      </c>
+      <c r="E12">
+        <v>1437691</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>375</v>
+      </c>
+      <c r="J12" s="6">
+        <v>41901</v>
+      </c>
+      <c r="L12" s="8">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>1625725</v>
+      </c>
+      <c r="E13">
+        <v>1437691</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="6">
+        <v>42291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>1625725</v>
+      </c>
+      <c r="E14">
+        <v>1437691</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>376</v>
+      </c>
+      <c r="J14" s="6">
+        <v>42653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15">
+        <v>1625725</v>
+      </c>
+      <c r="E15">
+        <v>1437691</v>
+      </c>
+      <c r="H15">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="6">
+        <v>43005</v>
+      </c>
+      <c r="L15" s="8">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16">
+        <v>1625725</v>
+      </c>
+      <c r="E16">
+        <v>1437691</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="6">
+        <v>43059</v>
+      </c>
+      <c r="L16" s="8">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>1765047</v>
+      </c>
+      <c r="E17">
+        <v>1437691</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="6">
+        <v>43012</v>
+      </c>
+      <c r="L17" s="8">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>1230504</v>
+      </c>
+      <c r="E18">
+        <v>1437691</v>
+      </c>
+      <c r="H18">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>390</v>
+      </c>
+      <c r="J18" s="6">
+        <v>42343</v>
+      </c>
+      <c r="L18" s="8">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>391</v>
+      </c>
+      <c r="B19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>1734762</v>
+      </c>
+      <c r="E19">
+        <v>1437691</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="6">
+        <v>43037</v>
+      </c>
+      <c r="L19" s="8">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>1728148</v>
+      </c>
+      <c r="E20">
+        <v>1437691</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="6">
+        <v>43032</v>
+      </c>
+      <c r="L20" s="8">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B21" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>1625651</v>
+      </c>
+      <c r="E21">
+        <v>1437691</v>
+      </c>
+      <c r="H21">
+        <v>306</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="6">
+        <v>42983</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>1625651</v>
+      </c>
+      <c r="E22">
+        <v>1437691</v>
+      </c>
+      <c r="H22">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="6">
+        <v>42989</v>
+      </c>
+      <c r="L22" s="8">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>1625651</v>
+      </c>
+      <c r="E23">
+        <v>1437691</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="6">
+        <v>43005</v>
+      </c>
+      <c r="L23" s="8">
+        <v>50</v>
+      </c>
+      <c r="N23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>416</v>
+      </c>
+      <c r="B24" t="s">
+        <v>417</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>1622891</v>
+      </c>
+      <c r="E24">
+        <v>1437691</v>
+      </c>
+      <c r="H24">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="6">
+        <v>42656</v>
+      </c>
+      <c r="L24" s="8">
+        <v>40</v>
+      </c>
+      <c r="N24" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>1622891</v>
+      </c>
+      <c r="E25">
+        <v>1437691</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>415</v>
+      </c>
+      <c r="J25" s="6">
+        <v>42662</v>
+      </c>
+      <c r="K25" s="6">
+        <v>43005</v>
+      </c>
+      <c r="L25" s="8">
+        <v>10</v>
+      </c>
+      <c r="M25" s="8">
+        <v>10</v>
+      </c>
+      <c r="N25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>416</v>
+      </c>
+      <c r="B26" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>1622891</v>
+      </c>
+      <c r="E26">
+        <v>1437691</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" s="6">
+        <v>43005</v>
+      </c>
+      <c r="L26" s="8">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>424</v>
+      </c>
+      <c r="B27" t="s">
+        <v>425</v>
+      </c>
+      <c r="C27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27">
+        <v>1572030</v>
+      </c>
+      <c r="E27">
+        <v>1437691</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="6">
+        <v>42374</v>
+      </c>
+      <c r="K27" s="6">
+        <v>43005</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>424</v>
+      </c>
+      <c r="B28" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28">
+        <v>1572030</v>
+      </c>
+      <c r="E28">
+        <v>1437691</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>415</v>
+      </c>
+      <c r="J28" s="6">
+        <v>42474</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>424</v>
+      </c>
+      <c r="B29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>1572030</v>
+      </c>
+      <c r="E29">
+        <v>1437691</v>
+      </c>
+      <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="6">
+        <v>42278</v>
+      </c>
+      <c r="L29" s="8">
+        <v>40</v>
+      </c>
+      <c r="N29" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" t="s">
+        <v>425</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>1572030</v>
+      </c>
+      <c r="E30">
+        <v>1437691</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="6">
+        <v>43048</v>
+      </c>
+      <c r="L30" s="8">
+        <v>50</v>
+      </c>
+      <c r="N30" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8246,16 +11419,16 @@
         <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8270,12 +11443,12 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -8285,10 +11458,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8299,15 +11472,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B2" s="6">
         <v>43021</v>
@@ -8315,7 +11488,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B3" s="6">
         <v>42437</v>
@@ -8323,7 +11496,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B4" s="6">
         <v>43005</v>
@@ -8331,7 +11504,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B5" s="6">
         <v>42286</v>
@@ -8339,10 +11512,106 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B6" s="6">
         <v>41537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="6">
+        <v>42636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="6">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="6">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="6">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="6">
+        <v>42355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="6">
+        <v>43038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" s="6">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" s="6">
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="6">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="6">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="6">
+        <v>42279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18" s="6">
+        <v>43048</v>
       </c>
     </row>
   </sheetData>

--- a/bubbles.xlsx
+++ b/bubbles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="EQ" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="497">
   <si>
     <t>J25A1</t>
   </si>
@@ -1082,9 +1082,6 @@
     <t>12th Ave NE Apt 307</t>
   </si>
   <si>
-    <t>ta</t>
-  </si>
-  <si>
     <t>Molly</t>
   </si>
   <si>
@@ -1169,9 +1166,6 @@
     <t>Yuan</t>
   </si>
   <si>
-    <t>TA</t>
-  </si>
-  <si>
     <t>1048063978@99.com</t>
   </si>
   <si>
@@ -1326,6 +1320,207 @@
   </si>
   <si>
     <t>ST881</t>
+  </si>
+  <si>
+    <t>faculty</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>Melia</t>
+  </si>
+  <si>
+    <t>Watras</t>
+  </si>
+  <si>
+    <t>steinway</t>
+  </si>
+  <si>
+    <t>J25A75</t>
+  </si>
+  <si>
+    <t>mwatras@uw.edu</t>
+  </si>
+  <si>
+    <t>3-1233</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Webbon</t>
+  </si>
+  <si>
+    <t>dwebbon@uw.edu</t>
+  </si>
+  <si>
+    <t>974-479-1233</t>
+  </si>
+  <si>
+    <t>9007 Dayton Ave N</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Weller</t>
+  </si>
+  <si>
+    <t>ST297</t>
+  </si>
+  <si>
+    <t>kkweller@uw.edu</t>
+  </si>
+  <si>
+    <t>425-218-5346</t>
+  </si>
+  <si>
+    <t>6819 174th St SW</t>
+  </si>
+  <si>
+    <t>St. Edmonds</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Werner</t>
+  </si>
+  <si>
+    <t>jody_michael_w@me.com</t>
+  </si>
+  <si>
+    <t>917-270-9140</t>
+  </si>
+  <si>
+    <t>2572 22ns Qt NE</t>
+  </si>
+  <si>
+    <t>Issaquah</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Wessels</t>
+  </si>
+  <si>
+    <t>F692</t>
+  </si>
+  <si>
+    <t>lauren_wessels@yahoo.com</t>
+  </si>
+  <si>
+    <t>972-209-3170</t>
+  </si>
+  <si>
+    <t>1220 S Ferry St</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Whiting</t>
+  </si>
+  <si>
+    <t>bwhiting@uw.edu</t>
+  </si>
+  <si>
+    <t>812-589-4081</t>
+  </si>
+  <si>
+    <t>3222 NE 87th St</t>
+  </si>
+  <si>
+    <t>F1206</t>
+  </si>
+  <si>
+    <t>J25AC12</t>
+  </si>
+  <si>
+    <t>F662</t>
+  </si>
+  <si>
+    <t>Devina</t>
+  </si>
+  <si>
+    <t>Wijaya</t>
+  </si>
+  <si>
+    <t>devina06@uw.edu</t>
+  </si>
+  <si>
+    <t>206-543-1201</t>
+  </si>
+  <si>
+    <t>UZA2</t>
+  </si>
+  <si>
+    <t>AUE10</t>
+  </si>
+  <si>
+    <t>Nile</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>nilew@uw.edu</t>
+  </si>
+  <si>
+    <t>540-846-1966</t>
+  </si>
+  <si>
+    <t>3636 Stone Way N</t>
+  </si>
+  <si>
+    <t>Apt 209</t>
+  </si>
+  <si>
+    <t>ST196</t>
+  </si>
+  <si>
+    <t>ST176</t>
+  </si>
+  <si>
+    <t>Wimett</t>
+  </si>
+  <si>
+    <t>dwimett@uw.edu</t>
+  </si>
+  <si>
+    <t>520-250-2226</t>
+  </si>
+  <si>
+    <t>3111 harris Pl S</t>
+  </si>
+  <si>
+    <t>ASE</t>
+  </si>
+  <si>
+    <t>J25AC10</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>lewinter@uw.edu</t>
+  </si>
+  <si>
+    <t>206-979-1817</t>
+  </si>
+  <si>
+    <t>520 Bellevue Ave E</t>
+  </si>
+  <si>
+    <t>Apt 102</t>
+  </si>
+  <si>
+    <t>ST872</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1393,6 +1588,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1684,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D833"/>
   <sheetViews>
-    <sheetView topLeftCell="A799" workbookViewId="0">
+    <sheetView topLeftCell="A814" workbookViewId="0">
       <selection activeCell="A834" sqref="A834"/>
     </sheetView>
   </sheetViews>
@@ -8219,7 +8415,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B816">
         <v>4</v>
@@ -8235,7 +8431,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B818">
         <v>60</v>
@@ -8267,7 +8463,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B822">
         <v>54</v>
@@ -8323,7 +8519,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B829">
         <v>5</v>
@@ -8347,7 +8543,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B832">
         <v>12</v>
@@ -8374,8 +8570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9871,6 +10067,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9952,11 +10149,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9985,13 +10182,13 @@
         <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>156</v>
@@ -10106,22 +10303,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
         <v>351</v>
       </c>
-      <c r="C6" t="s">
-        <v>352</v>
-      </c>
       <c r="E6" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" t="s">
         <v>354</v>
-      </c>
-      <c r="F6" t="s">
-        <v>355</v>
       </c>
       <c r="G6">
         <v>5043</v>
       </c>
       <c r="H6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J6" t="s">
         <v>330</v>
@@ -10135,31 +10332,31 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" t="s">
         <v>357</v>
-      </c>
-      <c r="B7" t="s">
-        <v>358</v>
       </c>
       <c r="C7" t="s">
         <v>341</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" t="s">
         <v>359</v>
-      </c>
-      <c r="F7" t="s">
-        <v>360</v>
       </c>
       <c r="G7">
         <v>14887</v>
       </c>
       <c r="H7" t="s">
+        <v>360</v>
+      </c>
+      <c r="J7" t="s">
         <v>361</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>362</v>
-      </c>
-      <c r="K7" t="s">
-        <v>363</v>
       </c>
       <c r="L7">
         <v>97224</v>
@@ -10167,22 +10364,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" t="s">
         <v>367</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" t="s">
         <v>369</v>
-      </c>
-      <c r="F8" t="s">
-        <v>370</v>
       </c>
       <c r="G8">
         <v>6551</v>
       </c>
       <c r="H8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J8" t="s">
         <v>330</v>
@@ -10196,22 +10393,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" t="s">
         <v>377</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="F9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G9">
         <v>902</v>
       </c>
       <c r="H9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J9" t="s">
         <v>330</v>
@@ -10225,25 +10422,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>384</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F10" t="s">
-        <v>386</v>
       </c>
       <c r="G10">
         <v>17718</v>
       </c>
       <c r="H10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K10" t="s">
         <v>331</v>
@@ -10254,28 +10451,28 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>392</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F11" t="s">
-        <v>394</v>
       </c>
       <c r="G11">
         <v>9217</v>
       </c>
       <c r="H11" t="s">
+        <v>393</v>
+      </c>
+      <c r="J11" t="s">
+        <v>394</v>
+      </c>
+      <c r="K11" t="s">
         <v>395</v>
-      </c>
-      <c r="J11" t="s">
-        <v>396</v>
-      </c>
-      <c r="K11" t="s">
-        <v>397</v>
       </c>
       <c r="L11">
         <v>95758</v>
@@ -10283,25 +10480,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>400</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F12" t="s">
-        <v>402</v>
       </c>
       <c r="G12">
         <v>11011</v>
       </c>
       <c r="H12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K12" t="s">
         <v>331</v>
@@ -10312,22 +10509,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>409</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" t="s">
+        <v>411</v>
+      </c>
+      <c r="H13" t="s">
         <v>410</v>
-      </c>
-      <c r="F13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G13" t="s">
-        <v>413</v>
-      </c>
-      <c r="H13" t="s">
-        <v>412</v>
       </c>
       <c r="J13" t="s">
         <v>330</v>
@@ -10341,22 +10538,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>417</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" t="s">
         <v>418</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>419</v>
-      </c>
-      <c r="G14" t="s">
-        <v>420</v>
-      </c>
-      <c r="H14" t="s">
-        <v>421</v>
       </c>
       <c r="J14" t="s">
         <v>330</v>
@@ -10370,22 +10567,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>425</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="G15" t="s">
         <v>426</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>427</v>
-      </c>
-      <c r="G15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H15" t="s">
-        <v>429</v>
       </c>
       <c r="J15" t="s">
         <v>330</v>
@@ -10395,6 +10592,251 @@
       </c>
       <c r="L15">
         <v>98115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17" t="s">
+        <v>439</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F17" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17" t="s">
+        <v>442</v>
+      </c>
+      <c r="J17" t="s">
+        <v>330</v>
+      </c>
+      <c r="K17" t="s">
+        <v>331</v>
+      </c>
+      <c r="L17">
+        <v>98103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C18" t="s">
+        <v>444</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" t="s">
+        <v>447</v>
+      </c>
+      <c r="G18" t="s">
+        <v>448</v>
+      </c>
+      <c r="J18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K18" t="s">
+        <v>331</v>
+      </c>
+      <c r="L18">
+        <v>98026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>450</v>
+      </c>
+      <c r="C19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F19" t="s">
+        <v>453</v>
+      </c>
+      <c r="G19" t="s">
+        <v>454</v>
+      </c>
+      <c r="J19" t="s">
+        <v>455</v>
+      </c>
+      <c r="K19" t="s">
+        <v>331</v>
+      </c>
+      <c r="L19">
+        <v>98029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" t="s">
+        <v>457</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F20" t="s">
+        <v>460</v>
+      </c>
+      <c r="G20" t="s">
+        <v>461</v>
+      </c>
+      <c r="J20" t="s">
+        <v>462</v>
+      </c>
+      <c r="K20" t="s">
+        <v>331</v>
+      </c>
+      <c r="L20">
+        <v>98405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" t="s">
+        <v>464</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F21" t="s">
+        <v>466</v>
+      </c>
+      <c r="G21" t="s">
+        <v>467</v>
+      </c>
+      <c r="J21" t="s">
+        <v>330</v>
+      </c>
+      <c r="K21" t="s">
+        <v>331</v>
+      </c>
+      <c r="L21">
+        <v>98117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>471</v>
+      </c>
+      <c r="C22" t="s">
+        <v>472</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" t="s">
+        <v>474</v>
+      </c>
+      <c r="J22" t="s">
+        <v>330</v>
+      </c>
+      <c r="K22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" t="s">
+        <v>478</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F23" t="s">
+        <v>480</v>
+      </c>
+      <c r="G23" t="s">
+        <v>481</v>
+      </c>
+      <c r="H23" t="s">
+        <v>482</v>
+      </c>
+      <c r="J23" t="s">
+        <v>330</v>
+      </c>
+      <c r="K23" t="s">
+        <v>331</v>
+      </c>
+      <c r="L23">
+        <v>98103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" t="s">
+        <v>485</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F24" t="s">
+        <v>487</v>
+      </c>
+      <c r="G24" t="s">
+        <v>488</v>
+      </c>
+      <c r="J24" t="s">
+        <v>330</v>
+      </c>
+      <c r="K24" t="s">
+        <v>331</v>
+      </c>
+      <c r="L24">
+        <v>98144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" t="s">
+        <v>491</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F25" t="s">
+        <v>493</v>
+      </c>
+      <c r="G25" t="s">
+        <v>494</v>
+      </c>
+      <c r="H25" t="s">
+        <v>495</v>
+      </c>
+      <c r="J25" t="s">
+        <v>402</v>
+      </c>
+      <c r="K25" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -10414,6 +10856,16 @@
     <hyperlink ref="E13" r:id="rId12"/>
     <hyperlink ref="E14" r:id="rId13"/>
     <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10421,11 +10873,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10594,6 +11046,9 @@
       <c r="C5" t="s">
         <v>337</v>
       </c>
+      <c r="D5">
+        <v>1530044</v>
+      </c>
       <c r="E5">
         <v>1437691</v>
       </c>
@@ -10650,7 +11105,7 @@
         <v>342</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
+        <v>489</v>
       </c>
       <c r="D7">
         <v>1622482</v>
@@ -10679,7 +11134,7 @@
         <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>350</v>
+        <v>489</v>
       </c>
       <c r="D8">
         <v>1622482</v>
@@ -10702,10 +11157,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" t="s">
         <v>351</v>
-      </c>
-      <c r="B9" t="s">
-        <v>352</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -10729,12 +11184,12 @@
         <v>40</v>
       </c>
       <c r="N9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
         <v>341</v>
@@ -10749,7 +11204,7 @@
         <v>1437691</v>
       </c>
       <c r="I10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J10" s="6">
         <v>41534</v>
@@ -10758,12 +11213,12 @@
         <v>40</v>
       </c>
       <c r="N10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
         <v>341</v>
@@ -10778,7 +11233,7 @@
         <v>1437691</v>
       </c>
       <c r="I11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J11" s="6">
         <v>42265</v>
@@ -10789,10 +11244,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" t="s">
         <v>367</v>
-      </c>
-      <c r="B12" t="s">
-        <v>368</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -10807,7 +11262,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J12" s="6">
         <v>41901</v>
@@ -10816,15 +11271,15 @@
         <v>40</v>
       </c>
       <c r="N12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
         <v>367</v>
-      </c>
-      <c r="B13" t="s">
-        <v>368</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -10847,10 +11302,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" t="s">
         <v>367</v>
-      </c>
-      <c r="B14" t="s">
-        <v>368</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -10865,7 +11320,7 @@
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J14" s="6">
         <v>42653</v>
@@ -10873,13 +11328,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" t="s">
         <v>367</v>
       </c>
-      <c r="B15" t="s">
-        <v>368</v>
-      </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>489</v>
       </c>
       <c r="D15">
         <v>1625725</v>
@@ -10900,18 +11355,18 @@
         <v>25</v>
       </c>
       <c r="N15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" t="s">
         <v>367</v>
       </c>
-      <c r="B16" t="s">
-        <v>368</v>
-      </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>489</v>
       </c>
       <c r="D16">
         <v>1625725</v>
@@ -10932,15 +11387,15 @@
         <v>10</v>
       </c>
       <c r="N16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" t="s">
         <v>377</v>
-      </c>
-      <c r="B17" t="s">
-        <v>378</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
@@ -10969,10 +11424,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
@@ -10987,7 +11442,7 @@
         <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J18" s="6">
         <v>42343</v>
@@ -10996,15 +11451,15 @@
         <v>40</v>
       </c>
       <c r="N18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -11028,15 +11483,15 @@
         <v>50</v>
       </c>
       <c r="N19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
@@ -11060,15 +11515,15 @@
         <v>50</v>
       </c>
       <c r="N20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C21" t="s">
         <v>54</v>
@@ -11094,10 +11549,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
         <v>54</v>
@@ -11121,15 +11576,15 @@
         <v>20</v>
       </c>
       <c r="N22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -11153,15 +11608,15 @@
         <v>50</v>
       </c>
       <c r="N23" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B24" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C24" t="s">
         <v>54</v>
@@ -11185,15 +11640,15 @@
         <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
@@ -11208,7 +11663,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J25" s="6">
         <v>42662</v>
@@ -11223,15 +11678,15 @@
         <v>10</v>
       </c>
       <c r="N25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -11255,15 +11710,15 @@
         <v>50</v>
       </c>
       <c r="N26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B27" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C27" t="s">
         <v>337</v>
@@ -11292,10 +11747,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C28" t="s">
         <v>337</v>
@@ -11310,7 +11765,7 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J28" s="6">
         <v>42474</v>
@@ -11321,10 +11776,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -11348,15 +11803,15 @@
         <v>40</v>
       </c>
       <c r="N29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
@@ -11380,7 +11835,1150 @@
         <v>50</v>
       </c>
       <c r="N30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>432</v>
+      </c>
+      <c r="B31" t="s">
+        <v>433</v>
+      </c>
+      <c r="C31" t="s">
+        <v>430</v>
+      </c>
+      <c r="E31">
+        <v>1437691</v>
+      </c>
+      <c r="I31" t="s">
+        <v>434</v>
+      </c>
+      <c r="J31" s="6">
+        <v>38674</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" t="s">
+        <v>433</v>
+      </c>
+      <c r="C32" t="s">
+        <v>430</v>
+      </c>
+      <c r="E32">
+        <v>1437691</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>375</v>
+      </c>
+      <c r="J32" s="6">
+        <v>39344</v>
+      </c>
+      <c r="K32" s="6">
+        <v>42991</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>432</v>
+      </c>
+      <c r="B33" t="s">
+        <v>433</v>
+      </c>
+      <c r="C33" t="s">
+        <v>430</v>
+      </c>
+      <c r="E33">
+        <v>1437691</v>
+      </c>
+      <c r="H33">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="6">
+        <v>39353</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>432</v>
+      </c>
+      <c r="B34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C34" t="s">
+        <v>430</v>
+      </c>
+      <c r="E34">
+        <v>1437691</v>
+      </c>
+      <c r="H34">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>435</v>
+      </c>
+      <c r="J34" s="6">
+        <v>39373</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>432</v>
+      </c>
+      <c r="B35" t="s">
+        <v>433</v>
+      </c>
+      <c r="C35" t="s">
+        <v>430</v>
+      </c>
+      <c r="E35">
+        <v>1437691</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="6">
+        <v>40422</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>432</v>
+      </c>
+      <c r="B36" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" t="s">
+        <v>430</v>
+      </c>
+      <c r="E36">
+        <v>1437691</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" s="6">
+        <v>40422</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" t="s">
+        <v>433</v>
+      </c>
+      <c r="C37" t="s">
+        <v>430</v>
+      </c>
+      <c r="E37">
+        <v>1437691</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="6">
+        <v>42380</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" t="s">
+        <v>433</v>
+      </c>
+      <c r="C38" t="s">
+        <v>430</v>
+      </c>
+      <c r="E38">
+        <v>1437691</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="6">
+        <v>42970</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>432</v>
+      </c>
+      <c r="B39" t="s">
+        <v>433</v>
+      </c>
+      <c r="C39" t="s">
+        <v>430</v>
+      </c>
+      <c r="E39">
+        <v>1437691</v>
+      </c>
+      <c r="I39" t="s">
+        <v>365</v>
+      </c>
+      <c r="J39" s="6">
+        <v>38224</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>432</v>
+      </c>
+      <c r="B40" t="s">
+        <v>433</v>
+      </c>
+      <c r="C40" t="s">
+        <v>430</v>
+      </c>
+      <c r="E40">
+        <v>1437691</v>
+      </c>
+      <c r="H40">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="6">
+        <v>42991</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>438</v>
+      </c>
+      <c r="B41" t="s">
+        <v>439</v>
+      </c>
+      <c r="C41" t="s">
+        <v>337</v>
+      </c>
+      <c r="D41">
+        <v>1524413</v>
+      </c>
+      <c r="E41">
+        <v>1437691</v>
+      </c>
+      <c r="H41">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="6">
+        <v>42277</v>
+      </c>
+      <c r="K41" s="6">
+        <v>42557</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B42" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" t="s">
+        <v>337</v>
+      </c>
+      <c r="D42">
+        <v>1524413</v>
+      </c>
+      <c r="E42">
+        <v>1437691</v>
+      </c>
+      <c r="I42" t="s">
+        <v>365</v>
+      </c>
+      <c r="J42" s="6">
+        <v>42289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>438</v>
+      </c>
+      <c r="B43" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43">
+        <v>1524413</v>
+      </c>
+      <c r="E43">
+        <v>1437691</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="6">
+        <v>43003</v>
+      </c>
+      <c r="L43" s="8">
+        <v>25</v>
+      </c>
+      <c r="N43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>443</v>
+      </c>
+      <c r="B44" t="s">
+        <v>444</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>1329484</v>
+      </c>
+      <c r="E44">
+        <v>1437691</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="6">
+        <v>42300</v>
+      </c>
+      <c r="L44" s="8">
+        <v>40</v>
+      </c>
+      <c r="N44" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>456</v>
+      </c>
+      <c r="B45" t="s">
+        <v>457</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45">
+        <v>1437691</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" s="6">
+        <v>42283</v>
+      </c>
+      <c r="L45" s="8">
+        <v>40</v>
+      </c>
+      <c r="N45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46">
+        <v>1437691</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>458</v>
+      </c>
+      <c r="J46" s="6">
+        <v>42285</v>
+      </c>
+      <c r="L46" s="8">
+        <v>10</v>
+      </c>
+      <c r="N46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>463</v>
+      </c>
+      <c r="B47" t="s">
+        <v>464</v>
+      </c>
+      <c r="C47" t="s">
+        <v>430</v>
+      </c>
+      <c r="D47">
+        <v>846004238</v>
+      </c>
+      <c r="E47">
+        <v>1437691</v>
+      </c>
+      <c r="H47">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s">
+        <v>435</v>
+      </c>
+      <c r="J47" s="6">
+        <v>40792</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>463</v>
+      </c>
+      <c r="B48" t="s">
+        <v>464</v>
+      </c>
+      <c r="C48" t="s">
+        <v>430</v>
+      </c>
+      <c r="D48">
+        <v>846004238</v>
+      </c>
+      <c r="E48">
+        <v>1437691</v>
+      </c>
+      <c r="H48">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="6">
+        <v>40792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>463</v>
+      </c>
+      <c r="B49" t="s">
+        <v>464</v>
+      </c>
+      <c r="C49" t="s">
+        <v>430</v>
+      </c>
+      <c r="D49">
+        <v>846004238</v>
+      </c>
+      <c r="E49">
+        <v>1437691</v>
+      </c>
+      <c r="I49" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" s="6">
+        <v>40792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>463</v>
+      </c>
+      <c r="B50" t="s">
+        <v>464</v>
+      </c>
+      <c r="C50" t="s">
+        <v>430</v>
+      </c>
+      <c r="D50">
+        <v>846004238</v>
+      </c>
+      <c r="E50">
+        <v>1437691</v>
+      </c>
+      <c r="H50">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s">
+        <v>139</v>
+      </c>
+      <c r="J50" s="6">
+        <v>40792</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>463</v>
+      </c>
+      <c r="B51" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" t="s">
+        <v>430</v>
+      </c>
+      <c r="D51">
+        <v>846004238</v>
+      </c>
+      <c r="E51">
+        <v>1437691</v>
+      </c>
+      <c r="H51">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>468</v>
+      </c>
+      <c r="J51" s="6">
+        <v>40792</v>
+      </c>
+      <c r="K51" s="6">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>463</v>
+      </c>
+      <c r="B52" t="s">
+        <v>464</v>
+      </c>
+      <c r="C52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D52">
+        <v>846004238</v>
+      </c>
+      <c r="E52">
+        <v>1437691</v>
+      </c>
+      <c r="H52">
+        <v>53</v>
+      </c>
+      <c r="I52" t="s">
+        <v>469</v>
+      </c>
+      <c r="J52" s="6">
+        <v>40792</v>
+      </c>
+      <c r="K52" s="6">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>463</v>
+      </c>
+      <c r="B53" t="s">
+        <v>464</v>
+      </c>
+      <c r="C53" t="s">
+        <v>430</v>
+      </c>
+      <c r="D53">
+        <v>846004238</v>
+      </c>
+      <c r="E53">
+        <v>1437691</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>470</v>
+      </c>
+      <c r="J53" s="6">
+        <v>40792</v>
+      </c>
+      <c r="K53" s="6">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>463</v>
+      </c>
+      <c r="B54" t="s">
+        <v>464</v>
+      </c>
+      <c r="C54" t="s">
+        <v>430</v>
+      </c>
+      <c r="D54">
+        <v>846004238</v>
+      </c>
+      <c r="E54">
+        <v>1437691</v>
+      </c>
+      <c r="H54">
+        <v>310</v>
+      </c>
+      <c r="I54" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" s="6">
+        <v>40792</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>463</v>
+      </c>
+      <c r="B55" t="s">
+        <v>464</v>
+      </c>
+      <c r="C55" t="s">
+        <v>430</v>
+      </c>
+      <c r="D55">
+        <v>846004238</v>
+      </c>
+      <c r="E55">
+        <v>1437691</v>
+      </c>
+      <c r="H55">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s">
+        <v>388</v>
+      </c>
+      <c r="J55" s="6">
+        <v>42636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>463</v>
+      </c>
+      <c r="B56" t="s">
+        <v>464</v>
+      </c>
+      <c r="C56" t="s">
+        <v>430</v>
+      </c>
+      <c r="D56">
+        <v>846004238</v>
+      </c>
+      <c r="E56">
+        <v>1437691</v>
+      </c>
+      <c r="H56">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="6">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>463</v>
+      </c>
+      <c r="B57" t="s">
+        <v>464</v>
+      </c>
+      <c r="C57" t="s">
+        <v>430</v>
+      </c>
+      <c r="D57">
+        <v>846004238</v>
+      </c>
+      <c r="E57">
+        <v>1437691</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>128</v>
+      </c>
+      <c r="J57" s="6">
+        <v>42986</v>
+      </c>
+      <c r="K57" s="6">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>463</v>
+      </c>
+      <c r="B58" t="s">
+        <v>464</v>
+      </c>
+      <c r="C58" t="s">
+        <v>430</v>
+      </c>
+      <c r="D58">
+        <v>846004238</v>
+      </c>
+      <c r="E58">
+        <v>1437691</v>
+      </c>
+      <c r="H58">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>182</v>
+      </c>
+      <c r="J58" s="6">
+        <v>42986</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>463</v>
+      </c>
+      <c r="B59" t="s">
+        <v>464</v>
+      </c>
+      <c r="C59" t="s">
+        <v>430</v>
+      </c>
+      <c r="D59">
+        <v>846004238</v>
+      </c>
+      <c r="E59">
+        <v>1437691</v>
+      </c>
+      <c r="H59">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>140</v>
+      </c>
+      <c r="J59" s="6">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>463</v>
+      </c>
+      <c r="B60" t="s">
+        <v>464</v>
+      </c>
+      <c r="C60" t="s">
+        <v>430</v>
+      </c>
+      <c r="D60">
+        <v>846004238</v>
+      </c>
+      <c r="E60">
+        <v>1437691</v>
+      </c>
+      <c r="H60">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>130</v>
+      </c>
+      <c r="J60" s="6">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>463</v>
+      </c>
+      <c r="B61" t="s">
+        <v>464</v>
+      </c>
+      <c r="C61" t="s">
+        <v>430</v>
+      </c>
+      <c r="D61">
+        <v>846004238</v>
+      </c>
+      <c r="E61">
+        <v>1437691</v>
+      </c>
+      <c r="I61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="6">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>463</v>
+      </c>
+      <c r="B62" t="s">
+        <v>464</v>
+      </c>
+      <c r="C62" t="s">
+        <v>430</v>
+      </c>
+      <c r="D62">
+        <v>846004238</v>
+      </c>
+      <c r="E62">
+        <v>1437691</v>
+      </c>
+      <c r="H62">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="6">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>471</v>
+      </c>
+      <c r="B63" t="s">
+        <v>472</v>
+      </c>
+      <c r="C63" t="s">
         <v>431</v>
+      </c>
+      <c r="D63">
+        <v>848005910</v>
+      </c>
+      <c r="E63">
+        <v>1437691</v>
+      </c>
+      <c r="H63">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" s="6">
+        <v>42688</v>
+      </c>
+      <c r="K63" s="10">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>471</v>
+      </c>
+      <c r="B64" t="s">
+        <v>472</v>
+      </c>
+      <c r="C64" t="s">
+        <v>431</v>
+      </c>
+      <c r="D64">
+        <v>848005910</v>
+      </c>
+      <c r="E64">
+        <v>1437691</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64" t="s">
+        <v>475</v>
+      </c>
+      <c r="J64" s="6">
+        <v>42688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>471</v>
+      </c>
+      <c r="B65" t="s">
+        <v>472</v>
+      </c>
+      <c r="C65" t="s">
+        <v>431</v>
+      </c>
+      <c r="D65">
+        <v>848005910</v>
+      </c>
+      <c r="E65">
+        <v>1437691</v>
+      </c>
+      <c r="H65">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65" s="6">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>471</v>
+      </c>
+      <c r="B66" t="s">
+        <v>472</v>
+      </c>
+      <c r="C66" t="s">
+        <v>431</v>
+      </c>
+      <c r="D66">
+        <v>848005910</v>
+      </c>
+      <c r="E66">
+        <v>1437691</v>
+      </c>
+      <c r="I66" t="s">
+        <v>476</v>
+      </c>
+      <c r="J66" s="6">
+        <v>42837</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>477</v>
+      </c>
+      <c r="B67" t="s">
+        <v>478</v>
+      </c>
+      <c r="C67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67">
+        <v>1464237</v>
+      </c>
+      <c r="E67">
+        <v>1437691</v>
+      </c>
+      <c r="H67">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s">
+        <v>139</v>
+      </c>
+      <c r="J67" s="6">
+        <v>41927</v>
+      </c>
+      <c r="L67" s="8">
+        <v>40</v>
+      </c>
+      <c r="N67" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>477</v>
+      </c>
+      <c r="B68" t="s">
+        <v>478</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>1464237</v>
+      </c>
+      <c r="E68">
+        <v>1437691</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68" t="s">
+        <v>458</v>
+      </c>
+      <c r="J68" s="6">
+        <v>41927</v>
+      </c>
+      <c r="K68" s="6">
+        <v>42989</v>
+      </c>
+      <c r="L68" s="8">
+        <v>40</v>
+      </c>
+      <c r="N68" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>477</v>
+      </c>
+      <c r="B69" t="s">
+        <v>478</v>
+      </c>
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69">
+        <v>1464237</v>
+      </c>
+      <c r="E69">
+        <v>1437691</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J69" s="6">
+        <v>42989</v>
+      </c>
+      <c r="L69" s="8">
+        <v>20</v>
+      </c>
+      <c r="N69" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>422</v>
+      </c>
+      <c r="B70" t="s">
+        <v>485</v>
+      </c>
+      <c r="C70" t="s">
+        <v>489</v>
+      </c>
+      <c r="D70">
+        <v>1568012</v>
+      </c>
+      <c r="E70">
+        <v>1437691</v>
+      </c>
+      <c r="H70">
+        <v>7</v>
+      </c>
+      <c r="I70" t="s">
+        <v>490</v>
+      </c>
+      <c r="J70" s="6">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>422</v>
+      </c>
+      <c r="B71" t="s">
+        <v>485</v>
+      </c>
+      <c r="C71" t="s">
+        <v>489</v>
+      </c>
+      <c r="D71">
+        <v>1568012</v>
+      </c>
+      <c r="E71">
+        <v>1437691</v>
+      </c>
+      <c r="H71">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="6">
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>333</v>
+      </c>
+      <c r="B72" t="s">
+        <v>491</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72">
+        <v>1728552</v>
+      </c>
+      <c r="E72">
+        <v>1437691</v>
+      </c>
+      <c r="H72">
+        <v>9</v>
+      </c>
+      <c r="I72" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" s="6">
+        <v>43007</v>
+      </c>
+      <c r="L72" s="8">
+        <v>25</v>
+      </c>
+      <c r="N72" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -11391,10 +12989,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11448,7 +13046,17 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -11458,10 +13066,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11504,7 +13112,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="6">
         <v>42286</v>
@@ -11512,7 +13120,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="6">
         <v>41537</v>
@@ -11520,7 +13128,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="6">
         <v>42636</v>
@@ -11528,7 +13136,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="6">
         <v>43011</v>
@@ -11536,7 +13144,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" s="6">
         <v>43070</v>
@@ -11552,7 +13160,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B11" s="6">
         <v>42355</v>
@@ -11560,7 +13168,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B12" s="6">
         <v>43038</v>
@@ -11568,7 +13176,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B13" s="6">
         <v>42992</v>
@@ -11576,7 +13184,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B14" s="6">
         <v>42656</v>
@@ -11584,7 +13192,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B15" s="6">
         <v>43029</v>
@@ -11592,7 +13200,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B16" s="6">
         <v>43011</v>
@@ -11600,7 +13208,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="6">
         <v>42279</v>
@@ -11608,10 +13216,50 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B18" s="6">
         <v>43048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" s="6">
+        <v>42299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" s="6">
+        <v>41877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B21" s="6">
+        <v>41946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>412</v>
+      </c>
+      <c r="B22" s="6">
+        <v>42992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B23" s="6">
+        <v>43013</v>
       </c>
     </row>
   </sheetData>
